--- a/financial_models/Opportunities/1766.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/1766.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F72221C-3D19-4998-A339-B506101AF13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA875E6A-FBA4-4FF8-8F9E-278A276FEA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4466,7 +4466,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>4.1399999999999997</v>
+        <v>4.24</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4516,7 +4516,7 @@
       <c r="H6" s="133"/>
       <c r="I6" s="418">
         <f>I4*I5/1000000</f>
-        <v>118813.29732432</v>
+        <v>121683.18373312001</v>
       </c>
       <c r="J6" s="419"/>
       <c r="K6" s="151"/>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39)/I4</f>
-        <v>5.018696673086484E-2</v>
+        <v>4.9003311855136886E-2</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40)/I4</f>
@@ -4558,11 +4558,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>10.096422861242388</v>
+        <v>10.394249281093536</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>9.9044979964017441E-2</v>
+        <v>9.6207044198847042E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4581,11 +4581,11 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.57062152227954133</v>
+        <v>0.58745383679391339</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>4.7053194051283285</v>
+        <v>4.8543139814098559</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="H12" s="133"/>
       <c r="I12" s="135">
-        <v>1.1422218606795194</v>
+        <v>1.1362931448569271</v>
       </c>
       <c r="J12" s="136" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4639,21 +4639,21 @@
       </c>
       <c r="D14" s="184">
         <f ca="1">MIN('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>1.7274926506708339</v>
+        <v>1.7096060504603912</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>232</v>
       </c>
       <c r="F14" s="184">
         <f ca="1">MAX('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>6.5724132852335</v>
+        <v>6.5382990978079523</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
         <f ca="1">IF('FCFF Model'!C32&lt;0, "Error", 'FCFF Model'!C32)</f>
-        <v>3.5350270717660921</v>
+        <v>3.5110863120192932</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4684,42 +4684,42 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>4.1399999999999997</v>
+        <v>4.24</v>
       </c>
       <c r="C16" s="364">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-0.24612872662654775</v>
+        <v>-0.27191360565582712</v>
       </c>
       <c r="E16" s="361">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>0.20559993492231349</v>
+        <v>0.20453276607424686</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>4.9661820029544328E-2</v>
+        <v>4.823885992317143E-2</v>
       </c>
       <c r="G16" s="389" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="420">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>0.66133775672289774</v>
+        <v>0.65790507542223686</v>
       </c>
       <c r="I16" s="389" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>3.4786622432771019</v>
+        <v>3.5820949245777634</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="289">
         <f ca="1">H14/(1+C16)</f>
-        <v>3.2136609743328108</v>
+        <v>3.1918966472902661</v>
       </c>
       <c r="C17" s="365"/>
       <c r="D17" s="288">
@@ -4729,14 +4729,14 @@
       <c r="E17" s="362"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
-        <v>6.3976858966897768E-2</v>
+        <v>6.407875588574688E-2</v>
       </c>
       <c r="G17" s="390"/>
       <c r="H17" s="421"/>
       <c r="I17" s="390"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>2.5523232176099131</v>
+        <v>2.5339915718680293</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4747,19 +4747,19 @@
       <c r="C18" s="366"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.37292794656920514</v>
+        <v>0.3629526300080389</v>
       </c>
       <c r="E18" s="363"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
-        <v>8.5666639550963958E-2</v>
+        <v>8.5221985864269531E-2</v>
       </c>
       <c r="G18" s="391"/>
       <c r="H18" s="422"/>
       <c r="I18" s="391"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>1.7386622432771022</v>
+        <v>1.742094924577763</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="J25" s="351">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>2.8280216574128736</v>
+        <v>2.8088690496154345</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5050,7 +5050,7 @@
       <c r="H35" s="375"/>
       <c r="I35" s="372">
         <f ca="1">'FCFF Model'!C33*0.8</f>
-        <v>5.6205259760239548</v>
+        <v>5.5913525707228864</v>
       </c>
       <c r="J35" s="373"/>
     </row>
@@ -9338,7 +9338,7 @@
       </c>
       <c r="I4" s="91">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>5.9432425113136986</v>
+        <v>5.9123940420912957</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10384,7 +10384,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="437">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>90632374.324319988</v>
+        <v>93502260.733120024</v>
       </c>
       <c r="E60" s="438"/>
       <c r="F60" s="6"/>
@@ -12707,7 +12707,7 @@
       </c>
       <c r="C29" s="251">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)*Exchange_Rate</f>
-        <v>1.7274926506708339</v>
+        <v>1.7096060504603912</v>
       </c>
       <c r="D29" s="23" t="str">
         <f ca="1">IF(C29&lt;E29,"&lt;",IF(C29=E29,"=","&gt;"))</f>
@@ -12715,7 +12715,7 @@
       </c>
       <c r="E29" s="250">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>6.5724132852335</v>
+        <v>6.5382990978079523</v>
       </c>
       <c r="F29" s="30"/>
       <c r="H29" s="6"/>
@@ -12751,7 +12751,7 @@
       </c>
       <c r="C32" s="252">
         <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$64</f>
-        <v>3.5350270717660921</v>
+        <v>3.5110863120192932</v>
       </c>
       <c r="D32" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="E32" s="120">
         <f ca="1">(C32-G19)/C9</f>
-        <v>7.2871134342520429</v>
+        <v>7.2280955097925439</v>
       </c>
       <c r="F32" s="158">
         <f ca="1">C32/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.48723732584312968</v>
+        <v>0.4864625295543219</v>
       </c>
       <c r="G32" s="87"/>
       <c r="H32" s="6"/>
@@ -12775,7 +12775,7 @@
       </c>
       <c r="C33" s="253">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G33)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>7.0256574700299428</v>
+        <v>6.9891907134036071</v>
       </c>
       <c r="D33" s="208" t="str">
         <f>D32</f>
@@ -12783,7 +12783,7 @@
       </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>15.892093532609685</v>
+        <v>15.80219695828966</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>

--- a/financial_models/Opportunities/1766.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/1766.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA875E6A-FBA4-4FF8-8F9E-278A276FEA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0042024E-27DF-4FC4-BB2F-A7EB8725C488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="329">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1147,6 +1147,9 @@
   </si>
   <si>
     <t>Book Cash Ratio</t>
+  </si>
+  <si>
+    <t>Expected Upside</t>
   </si>
 </sst>
 </file>
@@ -2893,7 +2896,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="446">
+  <cellXfs count="447">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3790,7 +3793,139 @@
     <xf numFmtId="178" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3825,10 +3960,6 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3838,10 +3969,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3852,135 +3979,11 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4022,6 +4025,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4395,8 +4401,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:H26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4440,33 +4446,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="406" t="s">
+      <c r="C3" s="359" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="407"/>
+      <c r="D3" s="360"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="416" t="s">
+      <c r="I3" s="371" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="417"/>
+      <c r="J3" s="372"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="408" t="s">
+      <c r="C4" s="361" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="409"/>
+      <c r="D4" s="362"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>4.24</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4477,10 +4483,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="410">
+      <c r="C5" s="363">
         <v>43647</v>
       </c>
-      <c r="D5" s="409"/>
+      <c r="D5" s="362"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4488,10 +4494,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="399">
+      <c r="I5" s="373">
         <v>28698864088</v>
       </c>
-      <c r="J5" s="400"/>
+      <c r="J5" s="374"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4514,11 +4520,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="418">
+      <c r="I6" s="375">
         <f>I4*I5/1000000</f>
-        <v>121683.18373312001</v>
-      </c>
-      <c r="J6" s="419"/>
+        <v>119100.28596520002</v>
+      </c>
+      <c r="J6" s="376"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4527,7 +4533,7 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39)/I4</f>
-        <v>4.9003311855136886E-2</v>
+        <v>5.0066034280910943E-2</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40)/I4</f>
@@ -4558,11 +4564,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>10.394249281093536</v>
+        <v>10.13644735669252</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>9.6207044198847042E-2</v>
+        <v>9.8653893697751696E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4581,47 +4587,47 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.58745383679391339</v>
+        <v>0.57288359458337634</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>4.8543139814098559</v>
+        <v>4.7202188627564823</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="312" t="s">
         <v>275</v>
       </c>
-      <c r="C11" s="427">
+      <c r="C11" s="387">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="428"/>
+      <c r="D11" s="388"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="425" t="s">
+      <c r="I11" s="385" t="s">
         <v>303</v>
       </c>
-      <c r="J11" s="426"/>
+      <c r="J11" s="386"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="313" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="356">
+      <c r="C12" s="406">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="357"/>
+      <c r="D12" s="407"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="133"/>
       <c r="I12" s="135">
-        <v>1.1362931448569271</v>
+        <v>1.1404598109878687</v>
       </c>
       <c r="J12" s="136" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4639,21 +4645,21 @@
       </c>
       <c r="D14" s="184">
         <f ca="1">MIN('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>1.7096060504603912</v>
+        <v>1.7221669251914855</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>232</v>
       </c>
       <c r="F14" s="184">
         <f ca="1">MAX('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>6.5382990978079523</v>
+        <v>6.5622743453293415</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
         <f ca="1">IF('FCFF Model'!C32&lt;0, "Error", 'FCFF Model'!C32)</f>
-        <v>3.5110863120192932</v>
+        <v>3.5279056407623042</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4684,59 +4690,59 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>4.24</v>
-      </c>
-      <c r="C16" s="364">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C16" s="414">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-0.27191360565582712</v>
-      </c>
-      <c r="E16" s="361">
+        <v>-0.24990225523799905</v>
+      </c>
+      <c r="E16" s="411">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>0.20453276607424686</v>
+        <v>0.20528276597781636</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>4.823885992317143E-2</v>
-      </c>
-      <c r="G16" s="389" t="s">
+        <v>4.9465726741642492E-2</v>
+      </c>
+      <c r="G16" s="380" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="420">
+      <c r="H16" s="377">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>0.65790507542223686</v>
-      </c>
-      <c r="I16" s="389" t="s">
+        <v>0.66031754337343762</v>
+      </c>
+      <c r="I16" s="380" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>3.5820949245777634</v>
+        <v>3.4896824566265625</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="289">
         <f ca="1">H14/(1+C16)</f>
-        <v>3.1918966472902661</v>
-      </c>
-      <c r="C17" s="365"/>
+        <v>3.2071869461475488</v>
+      </c>
+      <c r="C17" s="415"/>
       <c r="D17" s="288">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="362"/>
+      <c r="E17" s="412"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
-        <v>6.407875588574688E-2</v>
-      </c>
-      <c r="G17" s="390"/>
-      <c r="H17" s="421"/>
-      <c r="I17" s="390"/>
+        <v>6.4007109477793506E-2</v>
+      </c>
+      <c r="G17" s="381"/>
+      <c r="H17" s="378"/>
+      <c r="I17" s="381"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>2.5339915718680293</v>
+        <v>2.546869402774111</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4744,22 +4750,22 @@
         <f>C35</f>
         <v>2.4</v>
       </c>
-      <c r="C18" s="366"/>
+      <c r="C18" s="416"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.3629526300080389</v>
-      </c>
-      <c r="E18" s="363"/>
+        <v>0.36996068365096024</v>
+      </c>
+      <c r="E18" s="413"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
-        <v>8.5221985864269531E-2</v>
-      </c>
-      <c r="G18" s="391"/>
-      <c r="H18" s="422"/>
-      <c r="I18" s="391"/>
+        <v>8.5534485824090151E-2</v>
+      </c>
+      <c r="G18" s="382"/>
+      <c r="H18" s="379"/>
+      <c r="I18" s="382"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>1.742094924577763</v>
+        <v>1.7396824566265623</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4790,44 +4796,44 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="413" t="s">
+      <c r="C21" s="366" t="s">
         <v>310</v>
       </c>
-      <c r="D21" s="414"/>
-      <c r="E21" s="414"/>
-      <c r="F21" s="414"/>
-      <c r="G21" s="414"/>
-      <c r="H21" s="414"/>
-      <c r="I21" s="414"/>
-      <c r="J21" s="415"/>
+      <c r="D21" s="367"/>
+      <c r="E21" s="367"/>
+      <c r="F21" s="367"/>
+      <c r="G21" s="367"/>
+      <c r="H21" s="367"/>
+      <c r="I21" s="367"/>
+      <c r="J21" s="368"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="424"/>
-      <c r="D22" s="368"/>
-      <c r="E22" s="368"/>
-      <c r="F22" s="368"/>
-      <c r="G22" s="424"/>
-      <c r="H22" s="424"/>
-      <c r="I22" s="368"/>
-      <c r="J22" s="368"/>
+      <c r="C22" s="384"/>
+      <c r="D22" s="357"/>
+      <c r="E22" s="357"/>
+      <c r="F22" s="357"/>
+      <c r="G22" s="384"/>
+      <c r="H22" s="384"/>
+      <c r="I22" s="357"/>
+      <c r="J22" s="357"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="387"/>
-      <c r="D23" s="388"/>
-      <c r="E23" s="388"/>
-      <c r="F23" s="388"/>
-      <c r="G23" s="387"/>
-      <c r="H23" s="387"/>
-      <c r="I23" s="388"/>
-      <c r="J23" s="388"/>
+      <c r="C23" s="369"/>
+      <c r="D23" s="370"/>
+      <c r="E23" s="370"/>
+      <c r="F23" s="370"/>
+      <c r="G23" s="369"/>
+      <c r="H23" s="369"/>
+      <c r="I23" s="370"/>
+      <c r="J23" s="370"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4864,204 +4870,213 @@
       </c>
       <c r="J25" s="351">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>2.8088690496154345</v>
+        <v>2.8223245126098435</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="411">
+      <c r="C26" s="364">
         <v>43665</v>
       </c>
-      <c r="D26" s="412"/>
-      <c r="E26" s="369" t="str">
+      <c r="D26" s="365"/>
+      <c r="E26" s="417" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="370"/>
-      <c r="G26" s="370"/>
-      <c r="H26" s="371"/>
-      <c r="I26" s="423" t="s">
+      <c r="F26" s="418"/>
+      <c r="G26" s="418"/>
+      <c r="H26" s="419"/>
+      <c r="I26" s="383" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="423"/>
+      <c r="J26" s="383"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="360">
+      <c r="C27" s="410">
         <f>C31/D25</f>
         <v>0.187</v>
       </c>
-      <c r="D27" s="359"/>
-      <c r="E27" s="358">
+      <c r="D27" s="409"/>
+      <c r="E27" s="408">
         <f>E31/D25</f>
         <v>0.08</v>
       </c>
-      <c r="F27" s="359"/>
-      <c r="G27" s="393">
+      <c r="F27" s="409"/>
+      <c r="G27" s="392">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="394"/>
-      <c r="I27" s="392">
+      <c r="H27" s="393"/>
+      <c r="I27" s="391">
         <f>C27+E27+G27</f>
         <v>0.26700000000000002</v>
       </c>
-      <c r="J27" s="392"/>
+      <c r="J27" s="391"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="354">
+      <c r="C28" s="356">
         <v>20000</v>
       </c>
-      <c r="D28" s="368"/>
-      <c r="E28" s="354">
+      <c r="D28" s="357"/>
+      <c r="E28" s="356">
         <v>20000</v>
       </c>
-      <c r="F28" s="368"/>
-      <c r="G28" s="399"/>
-      <c r="H28" s="400"/>
-      <c r="I28" s="403">
+      <c r="F28" s="357"/>
+      <c r="G28" s="373"/>
+      <c r="H28" s="374"/>
+      <c r="I28" s="401">
         <f>C28+E28+G28</f>
         <v>40000</v>
       </c>
-      <c r="J28" s="403"/>
+      <c r="J28" s="401"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="367">
+      <c r="C29" s="358">
         <v>5.61</v>
       </c>
-      <c r="D29" s="368"/>
-      <c r="E29" s="367">
+      <c r="D29" s="357"/>
+      <c r="E29" s="358">
         <v>2.4</v>
       </c>
-      <c r="F29" s="368"/>
-      <c r="G29" s="395"/>
-      <c r="H29" s="396"/>
-      <c r="I29" s="401"/>
-      <c r="J29" s="401"/>
+      <c r="F29" s="357"/>
+      <c r="G29" s="394"/>
+      <c r="H29" s="395"/>
+      <c r="I29" s="398"/>
+      <c r="J29" s="398"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="380">
+      <c r="C30" s="354">
         <f>C29*$I$5/1000000</f>
         <v>161000.62753368003</v>
       </c>
-      <c r="D30" s="381"/>
-      <c r="E30" s="380">
+      <c r="D30" s="355"/>
+      <c r="E30" s="354">
         <f>E29*$I$5/1000000</f>
         <v>68877.273811199993</v>
       </c>
-      <c r="F30" s="381"/>
-      <c r="G30" s="397">
+      <c r="F30" s="355"/>
+      <c r="G30" s="396">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="398"/>
-      <c r="I30" s="402"/>
-      <c r="J30" s="402"/>
+      <c r="H30" s="397"/>
+      <c r="I30" s="399"/>
+      <c r="J30" s="399"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="382">
+      <c r="C31" s="426">
         <f>C28*C29</f>
         <v>112200</v>
       </c>
-      <c r="D31" s="383"/>
-      <c r="E31" s="384">
+      <c r="D31" s="427"/>
+      <c r="E31" s="400">
         <f>E28*E29</f>
         <v>48000</v>
       </c>
-      <c r="F31" s="385"/>
-      <c r="G31" s="404">
+      <c r="F31" s="428"/>
+      <c r="G31" s="403">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="405"/>
-      <c r="I31" s="384">
+      <c r="H31" s="404"/>
+      <c r="I31" s="400">
         <f>C31+E31+G31</f>
         <v>160200</v>
       </c>
-      <c r="J31" s="384"/>
+      <c r="J31" s="400"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="376"/>
-      <c r="D32" s="377"/>
-      <c r="E32" s="386">
+      <c r="C32" s="422"/>
+      <c r="D32" s="423"/>
+      <c r="E32" s="402">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>4.0049999999999999</v>
       </c>
-      <c r="F32" s="359"/>
+      <c r="F32" s="409"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="386">
+      <c r="I32" s="402">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>4.0049999999999999</v>
       </c>
-      <c r="J32" s="386"/>
+      <c r="J32" s="402"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="378"/>
-      <c r="D33" s="379"/>
-      <c r="E33" s="380">
+      <c r="C33" s="424"/>
+      <c r="D33" s="425"/>
+      <c r="E33" s="354">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>114938.95067244</v>
       </c>
-      <c r="F33" s="381"/>
+      <c r="F33" s="355"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="380">
+      <c r="I33" s="354">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>114938.95067244</v>
       </c>
-      <c r="J33" s="380"/>
+      <c r="J33" s="354"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>320</v>
       </c>
-      <c r="C35" s="372">
+      <c r="C35" s="389">
         <f>E29</f>
         <v>2.4</v>
       </c>
-      <c r="D35" s="373"/>
-      <c r="G35" s="374" t="s">
+      <c r="D35" s="390"/>
+      <c r="G35" s="420" t="s">
         <v>321</v>
       </c>
-      <c r="H35" s="375"/>
-      <c r="I35" s="372">
+      <c r="H35" s="421"/>
+      <c r="I35" s="389">
         <f ca="1">'FCFF Model'!C33*0.8</f>
-        <v>5.5913525707228864</v>
-      </c>
-      <c r="J35" s="373"/>
+        <v>5.6118554660259443</v>
+      </c>
+      <c r="J35" s="390"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>322</v>
       </c>
-      <c r="C36" s="354">
+      <c r="C36" s="356">
         <v>20000</v>
       </c>
-      <c r="D36" s="355"/>
+      <c r="D36" s="405"/>
+      <c r="G36" s="446" t="s">
+        <v>328</v>
+      </c>
+      <c r="H36" s="446"/>
+      <c r="I36" s="435">
+        <f ca="1">I35/C29-1</f>
+        <v>3.3074260712018244E-4</v>
+      </c>
+      <c r="J36" s="436"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5994,12 +6009,40 @@
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
+  <mergeCells count="54">
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6016,81 +6059,60 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:D26 I26 C28:G29 I28:I29">
-    <cfRule type="containsBlanks" priority="17">
+    <cfRule type="containsBlanks" priority="18">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="4">
+    <cfRule type="containsBlanks" priority="5">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J35">
-    <cfRule type="containsBlanks" priority="3">
+    <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="containsBlanks" priority="2">
+    <cfRule type="containsBlanks" priority="3">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="11" priority="2">
       <formula>LEN(TRIM(E26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:J36">
+    <cfRule type="containsBlanks" priority="1">
+      <formula>LEN(TRIM(I36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -9338,7 +9360,7 @@
       </c>
       <c r="I4" s="91">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>5.9123940420912957</v>
+        <v>5.9340741623309237</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10287,7 +10309,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>25367201</v>
       </c>
-      <c r="E53" s="383"/>
+      <c r="E53" s="427"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10306,7 +10328,7 @@
       <c r="D54" s="439">
         <v>0</v>
       </c>
-      <c r="E54" s="368"/>
+      <c r="E54" s="357"/>
       <c r="F54" s="6" t="s">
         <v>135</v>
       </c>
@@ -10320,7 +10342,7 @@
       <c r="D55" s="439">
         <v>0</v>
       </c>
-      <c r="E55" s="368"/>
+      <c r="E55" s="357"/>
       <c r="F55" s="5" t="s">
         <v>136</v>
       </c>
@@ -10384,7 +10406,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="437">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>93502260.733120024</v>
+        <v>90919362.965200007</v>
       </c>
       <c r="E60" s="438"/>
       <c r="F60" s="6"/>
@@ -12707,7 +12729,7 @@
       </c>
       <c r="C29" s="251">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)*Exchange_Rate</f>
-        <v>1.7096060504603912</v>
+        <v>1.7221669251914855</v>
       </c>
       <c r="D29" s="23" t="str">
         <f ca="1">IF(C29&lt;E29,"&lt;",IF(C29=E29,"=","&gt;"))</f>
@@ -12715,7 +12737,7 @@
       </c>
       <c r="E29" s="250">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>6.5382990978079523</v>
+        <v>6.5622743453293415</v>
       </c>
       <c r="F29" s="30"/>
       <c r="H29" s="6"/>
@@ -12751,7 +12773,7 @@
       </c>
       <c r="C32" s="252">
         <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$64</f>
-        <v>3.5110863120192932</v>
+        <v>3.5279056407623042</v>
       </c>
       <c r="D32" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12759,11 +12781,11 @@
       </c>
       <c r="E32" s="120">
         <f ca="1">(C32-G19)/C9</f>
-        <v>7.2280955097925439</v>
+        <v>7.2695579313578094</v>
       </c>
       <c r="F32" s="158">
         <f ca="1">C32/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.4864625295543219</v>
+        <v>0.48700705176647668</v>
       </c>
       <c r="G32" s="87"/>
       <c r="H32" s="6"/>
@@ -12775,7 +12797,7 @@
       </c>
       <c r="C33" s="253">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G33)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>6.9891907134036071</v>
+        <v>7.0148193325324302</v>
       </c>
       <c r="D33" s="208" t="str">
         <f>D32</f>
@@ -12783,7 +12805,7 @@
       </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>15.80219695828966</v>
+        <v>15.865375734725456</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>

--- a/financial_models/Opportunities/1766.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/1766.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0042024E-27DF-4FC4-BB2F-A7EB8725C488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E84257-BB72-4787-A8B9-4DB401658400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3793,139 +3793,14 @@
     <xf numFmtId="178" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3960,6 +3835,10 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3969,6 +3848,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3979,11 +3862,135 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3996,10 +4003,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4025,9 +4028,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4036,17 +4036,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4055,16 +4045,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4090,22 +4076,11 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -4132,9 +4107,28 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDD7E6B"/>
+          <bgColor rgb="FFDD7E6B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4159,20 +4153,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDD7E6B"/>
-          <bgColor rgb="FFDD7E6B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4401,7 +4394,7 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G36" sqref="G36:J36"/>
     </sheetView>
   </sheetViews>
@@ -4446,27 +4439,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="359" t="s">
+      <c r="C3" s="409" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="360"/>
+      <c r="D3" s="410"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="371" t="s">
+      <c r="I3" s="419" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="372"/>
+      <c r="J3" s="420"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="361" t="s">
+      <c r="C4" s="411" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="362"/>
+      <c r="D4" s="412"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4483,10 +4476,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="363">
+      <c r="C5" s="413">
         <v>43647</v>
       </c>
-      <c r="D5" s="362"/>
+      <c r="D5" s="412"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4494,10 +4487,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="373">
+      <c r="I5" s="402">
         <v>28698864088</v>
       </c>
-      <c r="J5" s="374"/>
+      <c r="J5" s="403"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4520,11 +4513,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="375">
+      <c r="I6" s="421">
         <f>I4*I5/1000000</f>
         <v>119100.28596520002</v>
       </c>
-      <c r="J6" s="376"/>
+      <c r="J6" s="422"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4598,30 +4591,30 @@
       <c r="B11" s="312" t="s">
         <v>275</v>
       </c>
-      <c r="C11" s="387">
+      <c r="C11" s="430">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="388"/>
+      <c r="D11" s="431"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="385" t="s">
+      <c r="I11" s="428" t="s">
         <v>303</v>
       </c>
-      <c r="J11" s="386"/>
+      <c r="J11" s="429"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="313" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="406">
+      <c r="C12" s="359">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="407"/>
+      <c r="D12" s="360"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4692,14 +4685,14 @@
         <f>I4</f>
         <v>4.1500000000000004</v>
       </c>
-      <c r="C16" s="414">
+      <c r="C16" s="367">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
         <v>-0.24990225523799905</v>
       </c>
-      <c r="E16" s="411">
+      <c r="E16" s="364">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.20528276597781636</v>
       </c>
@@ -4707,14 +4700,14 @@
         <f>E16/B16</f>
         <v>4.9465726741642492E-2</v>
       </c>
-      <c r="G16" s="380" t="s">
+      <c r="G16" s="392" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="377">
+      <c r="H16" s="423">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>0.66031754337343762</v>
       </c>
-      <c r="I16" s="380" t="s">
+      <c r="I16" s="392" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
@@ -4727,19 +4720,19 @@
         <f ca="1">H14/(1+C16)</f>
         <v>3.2071869461475488</v>
       </c>
-      <c r="C17" s="415"/>
+      <c r="C17" s="368"/>
       <c r="D17" s="288">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="412"/>
+      <c r="E17" s="365"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>6.4007109477793506E-2</v>
       </c>
-      <c r="G17" s="381"/>
-      <c r="H17" s="378"/>
-      <c r="I17" s="381"/>
+      <c r="G17" s="393"/>
+      <c r="H17" s="424"/>
+      <c r="I17" s="393"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>2.546869402774111</v>
@@ -4750,19 +4743,19 @@
         <f>C35</f>
         <v>2.4</v>
       </c>
-      <c r="C18" s="416"/>
+      <c r="C18" s="369"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
         <v>0.36996068365096024</v>
       </c>
-      <c r="E18" s="413"/>
+      <c r="E18" s="366"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>8.5534485824090151E-2</v>
       </c>
-      <c r="G18" s="382"/>
-      <c r="H18" s="379"/>
-      <c r="I18" s="382"/>
+      <c r="G18" s="394"/>
+      <c r="H18" s="425"/>
+      <c r="I18" s="394"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>1.7396824566265623</v>
@@ -4796,44 +4789,44 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="366" t="s">
+      <c r="C21" s="416" t="s">
         <v>310</v>
       </c>
-      <c r="D21" s="367"/>
-      <c r="E21" s="367"/>
-      <c r="F21" s="367"/>
-      <c r="G21" s="367"/>
-      <c r="H21" s="367"/>
-      <c r="I21" s="367"/>
-      <c r="J21" s="368"/>
+      <c r="D21" s="417"/>
+      <c r="E21" s="417"/>
+      <c r="F21" s="417"/>
+      <c r="G21" s="417"/>
+      <c r="H21" s="417"/>
+      <c r="I21" s="417"/>
+      <c r="J21" s="418"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="384"/>
-      <c r="D22" s="357"/>
-      <c r="E22" s="357"/>
-      <c r="F22" s="357"/>
-      <c r="G22" s="384"/>
-      <c r="H22" s="384"/>
-      <c r="I22" s="357"/>
-      <c r="J22" s="357"/>
+      <c r="C22" s="427"/>
+      <c r="D22" s="371"/>
+      <c r="E22" s="371"/>
+      <c r="F22" s="371"/>
+      <c r="G22" s="427"/>
+      <c r="H22" s="427"/>
+      <c r="I22" s="371"/>
+      <c r="J22" s="371"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="369"/>
-      <c r="D23" s="370"/>
-      <c r="E23" s="370"/>
-      <c r="F23" s="370"/>
-      <c r="G23" s="369"/>
-      <c r="H23" s="369"/>
-      <c r="I23" s="370"/>
-      <c r="J23" s="370"/>
+      <c r="C23" s="390"/>
+      <c r="D23" s="391"/>
+      <c r="E23" s="391"/>
+      <c r="F23" s="391"/>
+      <c r="G23" s="390"/>
+      <c r="H23" s="390"/>
+      <c r="I23" s="391"/>
+      <c r="J23" s="391"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4877,206 +4870,206 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="364">
+      <c r="C26" s="414">
         <v>43665</v>
       </c>
-      <c r="D26" s="365"/>
-      <c r="E26" s="417" t="str">
+      <c r="D26" s="415"/>
+      <c r="E26" s="372" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="418"/>
-      <c r="G26" s="418"/>
-      <c r="H26" s="419"/>
-      <c r="I26" s="383" t="s">
+      <c r="F26" s="373"/>
+      <c r="G26" s="373"/>
+      <c r="H26" s="374"/>
+      <c r="I26" s="426" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="383"/>
+      <c r="J26" s="426"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="410">
+      <c r="C27" s="363">
         <f>C31/D25</f>
         <v>0.187</v>
       </c>
-      <c r="D27" s="409"/>
-      <c r="E27" s="408">
+      <c r="D27" s="362"/>
+      <c r="E27" s="361">
         <f>E31/D25</f>
         <v>0.08</v>
       </c>
-      <c r="F27" s="409"/>
-      <c r="G27" s="392">
+      <c r="F27" s="362"/>
+      <c r="G27" s="396">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="393"/>
-      <c r="I27" s="391">
+      <c r="H27" s="397"/>
+      <c r="I27" s="395">
         <f>C27+E27+G27</f>
         <v>0.26700000000000002</v>
       </c>
-      <c r="J27" s="391"/>
+      <c r="J27" s="395"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="356">
+      <c r="C28" s="357">
         <v>20000</v>
       </c>
-      <c r="D28" s="357"/>
-      <c r="E28" s="356">
+      <c r="D28" s="371"/>
+      <c r="E28" s="357">
         <v>20000</v>
       </c>
-      <c r="F28" s="357"/>
-      <c r="G28" s="373"/>
-      <c r="H28" s="374"/>
-      <c r="I28" s="401">
+      <c r="F28" s="371"/>
+      <c r="G28" s="402"/>
+      <c r="H28" s="403"/>
+      <c r="I28" s="406">
         <f>C28+E28+G28</f>
         <v>40000</v>
       </c>
-      <c r="J28" s="401"/>
+      <c r="J28" s="406"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="358">
+      <c r="C29" s="370">
         <v>5.61</v>
       </c>
-      <c r="D29" s="357"/>
-      <c r="E29" s="358">
+      <c r="D29" s="371"/>
+      <c r="E29" s="370">
         <v>2.4</v>
       </c>
-      <c r="F29" s="357"/>
-      <c r="G29" s="394"/>
-      <c r="H29" s="395"/>
-      <c r="I29" s="398"/>
-      <c r="J29" s="398"/>
+      <c r="F29" s="371"/>
+      <c r="G29" s="398"/>
+      <c r="H29" s="399"/>
+      <c r="I29" s="404"/>
+      <c r="J29" s="404"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="354">
+      <c r="C30" s="383">
         <f>C29*$I$5/1000000</f>
         <v>161000.62753368003</v>
       </c>
-      <c r="D30" s="355"/>
-      <c r="E30" s="354">
+      <c r="D30" s="384"/>
+      <c r="E30" s="383">
         <f>E29*$I$5/1000000</f>
         <v>68877.273811199993</v>
       </c>
-      <c r="F30" s="355"/>
-      <c r="G30" s="396">
+      <c r="F30" s="384"/>
+      <c r="G30" s="400">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="397"/>
-      <c r="I30" s="399"/>
-      <c r="J30" s="399"/>
+      <c r="H30" s="401"/>
+      <c r="I30" s="405"/>
+      <c r="J30" s="405"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="426">
+      <c r="C31" s="385">
         <f>C28*C29</f>
         <v>112200</v>
       </c>
-      <c r="D31" s="427"/>
-      <c r="E31" s="400">
+      <c r="D31" s="386"/>
+      <c r="E31" s="387">
         <f>E28*E29</f>
         <v>48000</v>
       </c>
-      <c r="F31" s="428"/>
-      <c r="G31" s="403">
+      <c r="F31" s="388"/>
+      <c r="G31" s="407">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="404"/>
-      <c r="I31" s="400">
+      <c r="H31" s="408"/>
+      <c r="I31" s="387">
         <f>C31+E31+G31</f>
         <v>160200</v>
       </c>
-      <c r="J31" s="400"/>
+      <c r="J31" s="387"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="422"/>
-      <c r="D32" s="423"/>
-      <c r="E32" s="402">
+      <c r="C32" s="379"/>
+      <c r="D32" s="380"/>
+      <c r="E32" s="389">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>4.0049999999999999</v>
       </c>
-      <c r="F32" s="409"/>
+      <c r="F32" s="362"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="402">
+      <c r="I32" s="389">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>4.0049999999999999</v>
       </c>
-      <c r="J32" s="402"/>
+      <c r="J32" s="389"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="424"/>
-      <c r="D33" s="425"/>
-      <c r="E33" s="354">
+      <c r="C33" s="381"/>
+      <c r="D33" s="382"/>
+      <c r="E33" s="383">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>114938.95067244</v>
       </c>
-      <c r="F33" s="355"/>
+      <c r="F33" s="384"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="354">
+      <c r="I33" s="383">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>114938.95067244</v>
       </c>
-      <c r="J33" s="354"/>
+      <c r="J33" s="383"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>320</v>
       </c>
-      <c r="C35" s="389">
+      <c r="C35" s="375">
         <f>E29</f>
         <v>2.4</v>
       </c>
-      <c r="D35" s="390"/>
-      <c r="G35" s="420" t="s">
+      <c r="D35" s="376"/>
+      <c r="G35" s="377" t="s">
         <v>321</v>
       </c>
-      <c r="H35" s="421"/>
-      <c r="I35" s="389">
+      <c r="H35" s="378"/>
+      <c r="I35" s="375">
         <f ca="1">'FCFF Model'!C33*0.8</f>
         <v>5.6118554660259443</v>
       </c>
-      <c r="J35" s="390"/>
+      <c r="J35" s="376"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>322</v>
       </c>
-      <c r="C36" s="356">
+      <c r="C36" s="357">
         <v>20000</v>
       </c>
-      <c r="D36" s="405"/>
-      <c r="G36" s="446" t="s">
+      <c r="D36" s="358"/>
+      <c r="G36" s="354" t="s">
         <v>328</v>
       </c>
-      <c r="H36" s="446"/>
-      <c r="I36" s="435">
+      <c r="H36" s="354"/>
+      <c r="I36" s="355">
         <f ca="1">I35/C29-1</f>
         <v>3.3074260712018244E-4</v>
       </c>
-      <c r="J36" s="436"/>
+      <c r="J36" s="356"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6010,6 +6003,44 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="C36:D36"/>
@@ -6026,51 +6057,18 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
   </mergeCells>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="15" priority="24" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="C35:D36">
+    <cfRule type="containsBlanks" priority="5">
+      <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:D26 I26 C28:G29 I28:I29">
+  <conditionalFormatting sqref="C26:E26">
+    <cfRule type="containsBlanks" priority="3">
+      <formula>LEN(TRIM(C26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:G29 I26 I28:I29">
     <cfRule type="containsBlanks" priority="18">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
@@ -6080,9 +6078,9 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="greaterThan">
-      <formula>$B$16</formula>
+  <conditionalFormatting sqref="E26:H26">
+    <cfRule type="containsBlanks" dxfId="13" priority="2">
+      <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
@@ -6090,29 +6088,19 @@
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="5">
-      <formula>LEN(TRIM(C35))=0</formula>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
+      <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:J35">
-    <cfRule type="containsBlanks" priority="4">
-      <formula>LEN(TRIM(I35))=0</formula>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="10" priority="24" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="containsBlanks" priority="3">
-      <formula>LEN(TRIM(E26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="11" priority="2">
-      <formula>LEN(TRIM(E26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J36">
+  <conditionalFormatting sqref="I35:J36">
     <cfRule type="containsBlanks" priority="1">
-      <formula>LEN(TRIM(I36))=0</formula>
+      <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -9243,24 +9231,24 @@
     <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="D42:M46 C7:M35">
-    <cfRule type="containsBlanks" dxfId="10" priority="3">
+  <conditionalFormatting sqref="B51:M52">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>$C$49="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:M35 D42:M46">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="9" priority="4">
-      <formula>LEN(TRIM(D17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C37:M40">
-    <cfRule type="containsBlanks" dxfId="8" priority="5">
+    <cfRule type="containsBlanks" dxfId="7" priority="5">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:M52">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$C$49="No"</formula>
+  <conditionalFormatting sqref="D17:M18">
+    <cfRule type="containsBlanks" dxfId="6" priority="4">
+      <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -9289,7 +9277,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9399,7 +9387,7 @@
         <v>84</v>
       </c>
       <c r="D7" s="61">
-        <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
+        <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
         <v>0</v>
       </c>
       <c r="E7" s="49" t="str">
@@ -10292,11 +10280,11 @@
         <v>264</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="429">
+      <c r="D52" s="432">
         <f>D53+D54+D55</f>
         <v>25367201</v>
       </c>
-      <c r="E52" s="430"/>
+      <c r="E52" s="433"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10305,11 +10293,11 @@
         <v>234</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="432">
+      <c r="D53" s="435">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>25367201</v>
       </c>
-      <c r="E53" s="427"/>
+      <c r="E53" s="386"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10325,10 +10313,10 @@
         <v>134</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="439">
+      <c r="D54" s="440">
         <v>0</v>
       </c>
-      <c r="E54" s="357"/>
+      <c r="E54" s="371"/>
       <c r="F54" s="6" t="s">
         <v>135</v>
       </c>
@@ -10339,10 +10327,10 @@
         <v>133</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="439">
+      <c r="D55" s="440">
         <v>0</v>
       </c>
-      <c r="E55" s="357"/>
+      <c r="E55" s="371"/>
       <c r="F55" s="5" t="s">
         <v>136</v>
       </c>
@@ -10357,8 +10345,8 @@
         <v>137</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="431"/>
-      <c r="E57" s="431"/>
+      <c r="D57" s="434"/>
+      <c r="E57" s="434"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10404,11 +10392,11 @@
         <v>138</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="437">
+      <c r="D60" s="438">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>90919362.965200007</v>
       </c>
-      <c r="E60" s="438"/>
+      <c r="E60" s="439"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10425,20 +10413,20 @@
       <c r="B63" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D63" s="435">
+      <c r="D63" s="355">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-2.8753814455569179E-2</v>
       </c>
-      <c r="E63" s="436"/>
+      <c r="E63" s="356"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D64" s="433">
+      <c r="D64" s="436">
         <v>1.32E-2</v>
       </c>
-      <c r="E64" s="434"/>
+      <c r="E64" s="437"/>
       <c r="F64" s="265" t="s">
         <v>250</v>
       </c>
@@ -10447,11 +10435,11 @@
       <c r="B65" s="291" t="s">
         <v>267</v>
       </c>
-      <c r="D65" s="433">
+      <c r="D65" s="436">
         <f>D64</f>
         <v>1.32E-2</v>
       </c>
-      <c r="E65" s="434"/>
+      <c r="E65" s="437"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12102,38 +12090,37 @@
     <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="G19:H21 H18 G14:I14 G16:H17 H15 G9:I9 I16:I21">
-    <cfRule type="containsBlanks" dxfId="6" priority="8">
-      <formula>LEN(TRIM(G9))=0</formula>
+  <conditionalFormatting sqref="E22:E24 G24 I24">
+    <cfRule type="containsBlanks" dxfId="5" priority="2">
+      <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H17 G19:H21 G14:I14 H15 H18">
     <cfRule type="containsBlanks" priority="9">
+      <formula>LEN(TRIM(G14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H17 G19:H21 H18">
+    <cfRule type="containsBlanks" dxfId="4" priority="8">
+      <formula>LEN(TRIM(G16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:J9 G14:J14 G16:J24 H15 J14:J21">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(G9))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9 I17">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(I9))=0</formula>
+  <conditionalFormatting sqref="G9:J9 J14:J21">
+    <cfRule type="containsBlanks" priority="5">
+      <formula>LEN(TRIM(G9))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I21">
+    <cfRule type="containsBlanks" dxfId="2" priority="6">
+      <formula>LEN(TRIM(I16))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="7">
-      <formula>LEN(TRIM(I9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9 J14:J21">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
-      <formula>LEN(TRIM(J9))=0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="5">
-      <formula>LEN(TRIM(J9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E24 G24 I24">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
-      <formula>LEN(TRIM(E22))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:J14 H15 J15 G9:J9 G16:J24">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(G9))=0</formula>
+      <formula>LEN(TRIM(I16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12149,8 +12136,8 @@
   </sheetPr>
   <dimension ref="A1:J922"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12561,7 +12548,7 @@
         <v>237</v>
       </c>
       <c r="G19" s="197">
-        <f>G18*Data!C$4/Dashboard!I5</f>
+        <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
         <v>0.57899238273154852</v>
       </c>
     </row>
@@ -12577,7 +12564,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-0.88390958339730652</v>
       </c>
-      <c r="E20" s="442" t="str">
+      <c r="E20" s="443" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12600,7 +12587,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-1.2184749853783132</v>
       </c>
-      <c r="E21" s="442"/>
+      <c r="E21" s="443"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>1.8479476691962653</v>
@@ -12622,11 +12609,11 @@
         <f>B3</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="E23" s="445" t="s">
+      <c r="E23" s="446" t="s">
         <v>229</v>
       </c>
-      <c r="F23" s="445"/>
-      <c r="G23" s="445"/>
+      <c r="F23" s="446"/>
+      <c r="G23" s="446"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12667,7 +12654,7 @@
         <f ca="1">G9*D25/G14</f>
         <v>2.4244502510371473</v>
       </c>
-      <c r="F25" s="443">
+      <c r="F25" s="444">
         <f ca="1">SUM(C15:F15)</f>
         <v>1.1343173438291998</v>
       </c>
@@ -12692,7 +12679,7 @@
         <f ca="1">G9*D26/G14</f>
         <v>4.0407504183952456</v>
       </c>
-      <c r="F26" s="444"/>
+      <c r="F26" s="445"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>5.7540601449559938</v>
@@ -12754,10 +12741,10 @@
       <c r="I30" s="88"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="440" t="s">
+      <c r="C31" s="441" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="441"/>
+      <c r="D31" s="442"/>
       <c r="E31" s="30" t="s">
         <v>217</v>
       </c>
@@ -13712,14 +13699,14 @@
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="E23:G23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E13:F15 E4:F9">
-    <cfRule type="containsBlanks" dxfId="1" priority="5">
-      <formula>LEN(TRIM(E4))=0</formula>
+  <conditionalFormatting sqref="E25:E26 G25:G26">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+      <formula>$E$29</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E26 G25:G26">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
-      <formula>$E$29</formula>
+  <conditionalFormatting sqref="E4:F9 E13:F15">
+    <cfRule type="containsBlanks" dxfId="0" priority="5">
+      <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/financial_models/Opportunities/1766.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/1766.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E84257-BB72-4787-A8B9-4DB401658400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA7E9441-C003-42A1-B218-B444178DA1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="340">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1151,12 +1151,63 @@
   <si>
     <t>Expected Upside</t>
   </si>
+  <si>
+    <t>Allocation Analysis</t>
+  </si>
+  <si>
+    <t>1. The valuation quality rating (proxy of the "Error Term")</t>
+  </si>
+  <si>
+    <t>2. The probability of correctly forecasting the FCF based on the investment category</t>
+  </si>
+  <si>
+    <t>3. The business quality rating (proxy for not overestimating the exit)</t>
+  </si>
+  <si>
+    <t>A = Upside in event of a win</t>
+  </si>
+  <si>
+    <t>B = Downside in event of a loss</t>
+  </si>
+  <si>
+    <t>W = The estimated probability of win</t>
+  </si>
+  <si>
+    <t>R = A/B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒ Half Kelly %</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = [W – (1 – W)/R] /2</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Is the upside very attractive?</t>
+  </si>
+  <si>
+    <t>5. The probability of a recession affecting the company</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="24">
+  <numFmts count="25">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1181,6 +1232,7 @@
     <numFmt numFmtId="182" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
     <numFmt numFmtId="183" formatCode="&quot;Breakeven Price = &quot;0.00"/>
     <numFmt numFmtId="184" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="185" formatCode="0.000000000000000000%"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -2896,7 +2948,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="447">
+  <cellXfs count="455">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3793,6 +3845,26 @@
     <xf numFmtId="178" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4036,7 +4108,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4153,6 +4225,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-0.14996795556505021"/>
@@ -4173,8 +4255,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -4394,8 +4476,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36:J36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4439,33 +4521,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="409" t="s">
+      <c r="C3" s="417" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="410"/>
+      <c r="D3" s="418"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="419" t="s">
+      <c r="I3" s="427" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="420"/>
+      <c r="J3" s="428"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="411" t="s">
+      <c r="C4" s="419" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="412"/>
+      <c r="D4" s="420"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>4.1500000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4476,10 +4558,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="413">
+      <c r="C5" s="421">
         <v>43647</v>
       </c>
-      <c r="D5" s="412"/>
+      <c r="D5" s="420"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4487,10 +4569,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="402">
+      <c r="I5" s="410">
         <v>28698864088</v>
       </c>
-      <c r="J5" s="403"/>
+      <c r="J5" s="411"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4513,11 +4595,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="421">
+      <c r="I6" s="429">
         <f>I4*I5/1000000</f>
-        <v>119100.28596520002</v>
-      </c>
-      <c r="J6" s="422"/>
+        <v>120535.2291696</v>
+      </c>
+      <c r="J6" s="430"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4526,7 +4608,7 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39)/I4</f>
-        <v>5.0066034280910943E-2</v>
+        <v>4.9470010063281049E-2</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40)/I4</f>
@@ -4557,11 +4639,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>10.13644735669252</v>
+        <v>10.265698004275913</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>9.8653893697751696E-2</v>
+        <v>9.7411788227500518E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4580,47 +4662,47 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.57288359458337634</v>
+        <v>0.58018847892640169</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>4.7202188627564823</v>
+        <v>4.7947161508972451</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="312" t="s">
         <v>275</v>
       </c>
-      <c r="C11" s="430">
+      <c r="C11" s="438">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="431"/>
+      <c r="D11" s="439"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="428" t="s">
+      <c r="I11" s="436" t="s">
         <v>303</v>
       </c>
-      <c r="J11" s="429"/>
+      <c r="J11" s="437"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="313" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="359">
+      <c r="C12" s="367">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="360"/>
+      <c r="D12" s="368"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="133"/>
       <c r="I12" s="135">
-        <v>1.1404598109878687</v>
+        <v>1.1396682895075876</v>
       </c>
       <c r="J12" s="136" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4637,22 +4719,22 @@
         <v>215</v>
       </c>
       <c r="D14" s="184">
-        <f ca="1">MIN('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>1.7221669251914855</v>
+        <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
+        <v>1.719777259078529</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>232</v>
       </c>
       <c r="F14" s="184">
-        <f ca="1">MAX('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>6.5622743453293415</v>
+        <f ca="1">MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
+        <v>6.5577198831257792</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
-        <f ca="1">IF('FCFF Model'!C32&lt;0, "Error", 'FCFF Model'!C32)</f>
-        <v>3.5279056407623042</v>
+        <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
+        <v>3.5247083363527558</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4683,59 +4765,59 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="C16" s="367">
+        <v>4.2</v>
+      </c>
+      <c r="C16" s="375">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-0.24990225523799905</v>
-      </c>
-      <c r="E16" s="364">
+        <v>-0.26078372943982009</v>
+      </c>
+      <c r="E16" s="372">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>0.20528276597781636</v>
+        <v>0.20514029211136575</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>4.9465726741642492E-2</v>
-      </c>
-      <c r="G16" s="392" t="s">
+        <v>4.8842926693182319E-2</v>
+      </c>
+      <c r="G16" s="400" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="423">
+      <c r="H16" s="431">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>0.66031754337343762</v>
-      </c>
-      <c r="I16" s="392" t="s">
+        <v>0.65985925846558635</v>
+      </c>
+      <c r="I16" s="400" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>3.4896824566265625</v>
+        <v>3.5401407415344139</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="289">
         <f ca="1">H14/(1+C16)</f>
-        <v>3.2071869461475488</v>
-      </c>
-      <c r="C17" s="368"/>
+        <v>3.2042803057752325</v>
+      </c>
+      <c r="C17" s="376"/>
       <c r="D17" s="288">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="365"/>
+      <c r="E17" s="373"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
-        <v>6.4007109477793506E-2</v>
-      </c>
-      <c r="G17" s="393"/>
-      <c r="H17" s="424"/>
-      <c r="I17" s="393"/>
+        <v>6.4020707471075883E-2</v>
+      </c>
+      <c r="G17" s="401"/>
+      <c r="H17" s="432"/>
+      <c r="I17" s="401"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>2.546869402774111</v>
+        <v>2.5444210473096462</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4743,22 +4825,22 @@
         <f>C35</f>
         <v>2.4</v>
       </c>
-      <c r="C18" s="369"/>
+      <c r="C18" s="377"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.36996068365096024</v>
-      </c>
-      <c r="E18" s="366"/>
+        <v>0.36862847348031502</v>
+      </c>
+      <c r="E18" s="374"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
-        <v>8.5534485824090151E-2</v>
-      </c>
-      <c r="G18" s="394"/>
-      <c r="H18" s="425"/>
-      <c r="I18" s="394"/>
+        <v>8.5475121713069063E-2</v>
+      </c>
+      <c r="G18" s="402"/>
+      <c r="H18" s="433"/>
+      <c r="I18" s="402"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>1.7396824566265623</v>
+        <v>1.7401407415344137</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4789,44 +4871,44 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="416" t="s">
+      <c r="C21" s="424" t="s">
         <v>310</v>
       </c>
-      <c r="D21" s="417"/>
-      <c r="E21" s="417"/>
-      <c r="F21" s="417"/>
-      <c r="G21" s="417"/>
-      <c r="H21" s="417"/>
-      <c r="I21" s="417"/>
-      <c r="J21" s="418"/>
+      <c r="D21" s="425"/>
+      <c r="E21" s="425"/>
+      <c r="F21" s="425"/>
+      <c r="G21" s="425"/>
+      <c r="H21" s="425"/>
+      <c r="I21" s="425"/>
+      <c r="J21" s="426"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="427"/>
-      <c r="D22" s="371"/>
-      <c r="E22" s="371"/>
-      <c r="F22" s="371"/>
-      <c r="G22" s="427"/>
-      <c r="H22" s="427"/>
-      <c r="I22" s="371"/>
-      <c r="J22" s="371"/>
+      <c r="C22" s="435"/>
+      <c r="D22" s="379"/>
+      <c r="E22" s="379"/>
+      <c r="F22" s="379"/>
+      <c r="G22" s="435"/>
+      <c r="H22" s="435"/>
+      <c r="I22" s="379"/>
+      <c r="J22" s="379"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="390"/>
-      <c r="D23" s="391"/>
-      <c r="E23" s="391"/>
-      <c r="F23" s="391"/>
-      <c r="G23" s="390"/>
-      <c r="H23" s="390"/>
-      <c r="I23" s="391"/>
-      <c r="J23" s="391"/>
+      <c r="C23" s="398"/>
+      <c r="D23" s="399"/>
+      <c r="E23" s="399"/>
+      <c r="F23" s="399"/>
+      <c r="G23" s="398"/>
+      <c r="H23" s="398"/>
+      <c r="I23" s="399"/>
+      <c r="J23" s="399"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4863,242 +4945,345 @@
       </c>
       <c r="J25" s="351">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>2.8223245126098435</v>
+        <v>2.8197666690822047</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="414">
+      <c r="C26" s="422">
         <v>43665</v>
       </c>
-      <c r="D26" s="415"/>
-      <c r="E26" s="372" t="str">
+      <c r="D26" s="423"/>
+      <c r="E26" s="380" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="373"/>
-      <c r="G26" s="373"/>
-      <c r="H26" s="374"/>
-      <c r="I26" s="426" t="s">
+      <c r="F26" s="381"/>
+      <c r="G26" s="381"/>
+      <c r="H26" s="382"/>
+      <c r="I26" s="434" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="426"/>
+      <c r="J26" s="434"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="363">
+      <c r="C27" s="371">
         <f>C31/D25</f>
         <v>0.187</v>
       </c>
-      <c r="D27" s="362"/>
-      <c r="E27" s="361">
+      <c r="D27" s="370"/>
+      <c r="E27" s="369">
         <f>E31/D25</f>
         <v>0.08</v>
       </c>
-      <c r="F27" s="362"/>
-      <c r="G27" s="396">
+      <c r="F27" s="370"/>
+      <c r="G27" s="404">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="397"/>
-      <c r="I27" s="395">
+      <c r="H27" s="405"/>
+      <c r="I27" s="403">
         <f>C27+E27+G27</f>
         <v>0.26700000000000002</v>
       </c>
-      <c r="J27" s="395"/>
+      <c r="J27" s="403"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="357">
+      <c r="C28" s="365">
         <v>20000</v>
       </c>
-      <c r="D28" s="371"/>
-      <c r="E28" s="357">
+      <c r="D28" s="379"/>
+      <c r="E28" s="365">
         <v>20000</v>
       </c>
-      <c r="F28" s="371"/>
-      <c r="G28" s="402"/>
-      <c r="H28" s="403"/>
-      <c r="I28" s="406">
+      <c r="F28" s="379"/>
+      <c r="G28" s="410"/>
+      <c r="H28" s="411"/>
+      <c r="I28" s="414">
         <f>C28+E28+G28</f>
         <v>40000</v>
       </c>
-      <c r="J28" s="406"/>
+      <c r="J28" s="414"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="370">
+      <c r="C29" s="378">
         <v>5.61</v>
       </c>
-      <c r="D29" s="371"/>
-      <c r="E29" s="370">
+      <c r="D29" s="379"/>
+      <c r="E29" s="378">
         <v>2.4</v>
       </c>
-      <c r="F29" s="371"/>
-      <c r="G29" s="398"/>
-      <c r="H29" s="399"/>
-      <c r="I29" s="404"/>
-      <c r="J29" s="404"/>
+      <c r="F29" s="379"/>
+      <c r="G29" s="406"/>
+      <c r="H29" s="407"/>
+      <c r="I29" s="412"/>
+      <c r="J29" s="412"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="383">
+      <c r="C30" s="391">
         <f>C29*$I$5/1000000</f>
         <v>161000.62753368003</v>
       </c>
-      <c r="D30" s="384"/>
-      <c r="E30" s="383">
+      <c r="D30" s="392"/>
+      <c r="E30" s="391">
         <f>E29*$I$5/1000000</f>
         <v>68877.273811199993</v>
       </c>
-      <c r="F30" s="384"/>
-      <c r="G30" s="400">
+      <c r="F30" s="392"/>
+      <c r="G30" s="408">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="401"/>
-      <c r="I30" s="405"/>
-      <c r="J30" s="405"/>
+      <c r="H30" s="409"/>
+      <c r="I30" s="413"/>
+      <c r="J30" s="413"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="385">
+      <c r="C31" s="393">
         <f>C28*C29</f>
         <v>112200</v>
       </c>
-      <c r="D31" s="386"/>
-      <c r="E31" s="387">
+      <c r="D31" s="394"/>
+      <c r="E31" s="395">
         <f>E28*E29</f>
         <v>48000</v>
       </c>
-      <c r="F31" s="388"/>
-      <c r="G31" s="407">
+      <c r="F31" s="396"/>
+      <c r="G31" s="415">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="408"/>
-      <c r="I31" s="387">
+      <c r="H31" s="416"/>
+      <c r="I31" s="395">
         <f>C31+E31+G31</f>
         <v>160200</v>
       </c>
-      <c r="J31" s="387"/>
+      <c r="J31" s="395"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="379"/>
-      <c r="D32" s="380"/>
-      <c r="E32" s="389">
+      <c r="C32" s="387"/>
+      <c r="D32" s="388"/>
+      <c r="E32" s="397">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>4.0049999999999999</v>
       </c>
-      <c r="F32" s="362"/>
+      <c r="F32" s="370"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="389">
+      <c r="I32" s="397">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>4.0049999999999999</v>
       </c>
-      <c r="J32" s="389"/>
+      <c r="J32" s="397"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="381"/>
-      <c r="D33" s="382"/>
-      <c r="E33" s="383">
+      <c r="C33" s="389"/>
+      <c r="D33" s="390"/>
+      <c r="E33" s="391">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>114938.95067244</v>
       </c>
-      <c r="F33" s="384"/>
+      <c r="F33" s="392"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="383">
+      <c r="I33" s="391">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>114938.95067244</v>
       </c>
-      <c r="J33" s="383"/>
+      <c r="J33" s="391"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>320</v>
       </c>
-      <c r="C35" s="375">
+      <c r="C35" s="383">
         <f>E29</f>
         <v>2.4</v>
       </c>
-      <c r="D35" s="376"/>
-      <c r="G35" s="377" t="s">
+      <c r="D35" s="384"/>
+      <c r="G35" s="385" t="s">
         <v>321</v>
       </c>
-      <c r="H35" s="378"/>
-      <c r="I35" s="375">
-        <f ca="1">'FCFF Model'!C33*0.8</f>
-        <v>5.6118554660259443</v>
-      </c>
-      <c r="J35" s="376"/>
+      <c r="H35" s="386"/>
+      <c r="I35" s="383">
+        <f ca="1">'FCFF Model'!C34*0.8</f>
+        <v>5.6079606298354916</v>
+      </c>
+      <c r="J35" s="384"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>322</v>
       </c>
-      <c r="C36" s="357">
+      <c r="C36" s="365">
         <v>20000</v>
       </c>
-      <c r="D36" s="358"/>
-      <c r="G36" s="354" t="s">
+      <c r="D36" s="366"/>
+      <c r="G36" s="362" t="s">
         <v>328</v>
       </c>
-      <c r="H36" s="354"/>
-      <c r="I36" s="355">
+      <c r="H36" s="362"/>
+      <c r="I36" s="363">
         <f ca="1">I35/C29-1</f>
-        <v>3.3074260712018244E-4</v>
-      </c>
-      <c r="J36" s="356"/>
+        <v>-3.6352409349527104E-4</v>
+      </c>
+      <c r="J36" s="364"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="G38" s="346" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="133"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F39" s="214">
+        <f>'Qualitative Analysis'!E8</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F40" s="214">
+        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E41" s="354"/>
+      <c r="F41" s="355">
+        <f>'Qualitative Analysis'!E64</f>
+        <v>0.37307823129251699</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E42" s="354">
+        <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="102" t="str">
+        <f ca="1">IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
+        <v>Strongly Disagree</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F43" s="361">
+        <f>AVERAGE(80%*0.5,0.6)</f>
+        <v>0.5</v>
+      </c>
+    </row>
     <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F45" s="355">
+        <f ca="1">I35/C29-1</f>
+        <v>-3.6352409349527104E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F46" s="355">
+        <f ca="1">D14/C29-1</f>
+        <v>-0.69344433884518208</v>
+      </c>
+    </row>
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F48" s="214">
+        <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E49" s="358">
+        <f ca="1">F45/ABS(F46)</f>
+        <v>-5.2422966506678937E-4</v>
+      </c>
+      <c r="F49" s="356">
+        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
+        <v>-5.2422966506678937E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E50" s="107">
+        <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="357">
+        <f ca="1">MIN(E50,H50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6059,51 +6244,56 @@
     <mergeCell ref="C31:D31"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="5">
+    <cfRule type="containsBlanks" priority="6">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:E26">
-    <cfRule type="containsBlanks" priority="3">
+    <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:G29 I26 I28:I29">
-    <cfRule type="containsBlanks" priority="18">
+    <cfRule type="containsBlanks" priority="19">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="3">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="10" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J36">
-    <cfRule type="containsBlanks" priority="1">
+    <cfRule type="containsBlanks" priority="2">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -6115,6 +6305,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20" xr:uid="{653EE4BA-4D98-4EE5-AD27-D0955626562F}">
       <formula1>"Slow Growers, Stalwarts, Fast Growers, Cyclicals, Turnarounds, Asset Plays "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F42" xr:uid="{33C688A3-C816-43FE-8D75-FCBAB2F3BE10}">
+      <formula1>"Strongly agree,agree,So-so,disagree,Strongly disagree"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -9348,7 +9541,7 @@
       </c>
       <c r="I4" s="91">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>5.9340741623309237</v>
+        <v>5.9299556943938567</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10280,11 +10473,11 @@
         <v>264</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="432">
+      <c r="D52" s="440">
         <f>D53+D54+D55</f>
         <v>25367201</v>
       </c>
-      <c r="E52" s="433"/>
+      <c r="E52" s="441"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10293,11 +10486,11 @@
         <v>234</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="435">
+      <c r="D53" s="443">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>25367201</v>
       </c>
-      <c r="E53" s="386"/>
+      <c r="E53" s="394"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10313,10 +10506,10 @@
         <v>134</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="440">
+      <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="371"/>
+      <c r="E54" s="379"/>
       <c r="F54" s="6" t="s">
         <v>135</v>
       </c>
@@ -10327,10 +10520,10 @@
         <v>133</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="440">
+      <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="371"/>
+      <c r="E55" s="379"/>
       <c r="F55" s="5" t="s">
         <v>136</v>
       </c>
@@ -10345,8 +10538,8 @@
         <v>137</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="434"/>
-      <c r="E57" s="434"/>
+      <c r="D57" s="442"/>
+      <c r="E57" s="442"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10392,11 +10585,11 @@
         <v>138</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="438">
+      <c r="D60" s="446">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>90919362.965200007</v>
-      </c>
-      <c r="E60" s="439"/>
+        <v>92354306.16960001</v>
+      </c>
+      <c r="E60" s="447"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10413,20 +10606,20 @@
       <c r="B63" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D63" s="355">
+      <c r="D63" s="363">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-2.8753814455569179E-2</v>
       </c>
-      <c r="E63" s="356"/>
+      <c r="E63" s="364"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D64" s="436">
+      <c r="D64" s="444">
         <v>1.32E-2</v>
       </c>
-      <c r="E64" s="437"/>
+      <c r="E64" s="445"/>
       <c r="F64" s="265" t="s">
         <v>250</v>
       </c>
@@ -10435,11 +10628,11 @@
       <c r="B65" s="291" t="s">
         <v>267</v>
       </c>
-      <c r="D65" s="436">
+      <c r="D65" s="444">
         <f>D64</f>
         <v>1.32E-2</v>
       </c>
-      <c r="E65" s="437"/>
+      <c r="E65" s="445"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12134,10 +12327,10 @@
     <tabColor rgb="FFB6D7A8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J922"/>
+  <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12564,7 +12757,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-0.88390958339730652</v>
       </c>
-      <c r="E20" s="443" t="str">
+      <c r="E20" s="451" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12587,7 +12780,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-1.2184749853783132</v>
       </c>
-      <c r="E21" s="443"/>
+      <c r="E21" s="451"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>1.8479476691962653</v>
@@ -12609,11 +12802,11 @@
         <f>B3</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="E23" s="446" t="s">
+      <c r="E23" s="454" t="s">
         <v>229</v>
       </c>
-      <c r="F23" s="446"/>
-      <c r="G23" s="446"/>
+      <c r="F23" s="454"/>
+      <c r="G23" s="454"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12654,7 +12847,7 @@
         <f ca="1">G9*D25/G14</f>
         <v>2.4244502510371473</v>
       </c>
-      <c r="F25" s="444">
+      <c r="F25" s="452">
         <f ca="1">SUM(C15:F15)</f>
         <v>1.1343173438291998</v>
       </c>
@@ -12679,7 +12872,7 @@
         <f ca="1">G9*D26/G14</f>
         <v>4.0407504183952456</v>
       </c>
-      <c r="F26" s="445"/>
+      <c r="F26" s="453"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>5.7540601449559938</v>
@@ -12687,137 +12880,145 @@
       <c r="I26" s="74"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="359"/>
+      <c r="D27" s="360"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="123"/>
+      <c r="I27" s="74"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="249" t="str">
+      <c r="C29" s="249" t="str">
         <f>"(Numbers in "&amp;Dashboard!J4&amp;" per share)"</f>
         <v>(Numbers in HKD per share)</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="90"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="71" t="s">
+      <c r="D29" s="127"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="90"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="C29" s="251">
+      <c r="C30" s="251">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)*Exchange_Rate</f>
-        <v>1.7221669251914855</v>
-      </c>
-      <c r="D29" s="23" t="str">
-        <f ca="1">IF(C29&lt;E29,"&lt;",IF(C29=E29,"=","&gt;"))</f>
+        <v>1.719777259078529</v>
+      </c>
+      <c r="D30" s="23" t="str">
+        <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
         <v>&lt;</v>
       </c>
-      <c r="E29" s="250">
+      <c r="E30" s="250">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>6.5622743453293415</v>
-      </c>
-      <c r="F29" s="30"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="124"/>
+        <v>6.5577198831257792</v>
+      </c>
+      <c r="F30" s="30"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="88"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="441" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="88"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="449" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="442"/>
-      <c r="E31" s="30" t="s">
+      <c r="D32" s="450"/>
+      <c r="E32" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F32" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="255" t="s">
+      <c r="G32" s="30"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="255" t="s">
         <v>231</v>
       </c>
-      <c r="C32" s="252">
-        <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$64</f>
-        <v>3.5279056407623042</v>
-      </c>
-      <c r="D32" s="119" t="str">
+      <c r="C33" s="252">
+        <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
+        <v>3.5247083363527558</v>
+      </c>
+      <c r="D33" s="119" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
-      <c r="E32" s="120">
-        <f ca="1">(C32-G19)/C9</f>
-        <v>7.2695579313578094</v>
-      </c>
-      <c r="F32" s="158">
-        <f ca="1">C32/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.48700705176647668</v>
-      </c>
-      <c r="G32" s="87"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="74"/>
-    </row>
-    <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="254" t="s">
-        <v>230</v>
-      </c>
-      <c r="C33" s="253">
-        <f ca="1">MAX(Asset_Model!D7,(G12/(1+G33)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>7.0148193325324302</v>
-      </c>
-      <c r="D33" s="208" t="str">
-        <f>D32</f>
-        <v>HKD</v>
-      </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>15.865375734725456</v>
+        <v>7.2616760482382903</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>0.48690361150659839</v>
+      </c>
+      <c r="G33" s="87"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="74"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="254" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="253">
+        <f ca="1">MAX(Asset_Model!D7,(G12/(1+G34)^G4+F25+G19)*Exchange_Rate)</f>
+        <v>7.0099507872943638</v>
+      </c>
+      <c r="D34" s="208" t="str">
+        <f>D33</f>
+        <v>HKD</v>
+      </c>
+      <c r="E34" s="120">
+        <f ca="1">(C34-G19)/C9</f>
+        <v>15.853373967107105</v>
+      </c>
+      <c r="F34" s="158">
+        <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>0.9683554011022022</v>
       </c>
-      <c r="G33" s="280">
+      <c r="G34" s="280">
         <f>Dashboard!D10+4.5%</f>
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13692,16 +13893,17 @@
     <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="E23:G23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E25:E26 G25:G26">
+  <conditionalFormatting sqref="E25:E27 G25:G27">
     <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
-      <formula>$E$29</formula>
+      <formula>$E$30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F9 E13:F15">

--- a/financial_models/Opportunities/1766.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/1766.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA7E9441-C003-42A1-B218-B444178DA1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C240D2F1-EA76-4988-96D9-BFDAD2B854B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4476,8 +4476,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9470,7 +9470,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="59">
-        <f>E46-I46-E50</f>
+        <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
         <v>-58336855.100000024</v>
       </c>
       <c r="E6" s="14">
@@ -9580,7 +9580,7 @@
         <v>84</v>
       </c>
       <c r="D7" s="61">
-        <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
+        <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
         <v>0</v>
       </c>
       <c r="E7" s="49" t="str">

--- a/financial_models/Opportunities/1766.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/1766.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C240D2F1-EA76-4988-96D9-BFDAD2B854B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01A8CA1B-E9DD-482E-85B2-D54ADFD2CFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3865,6 +3865,143 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3872,9 +4009,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3885,7 +4019,6 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3907,10 +4040,6 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3920,10 +4049,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3934,135 +4059,10 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4521,27 +4521,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="417" t="s">
+      <c r="C3" s="371" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="418"/>
+      <c r="D3" s="372"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="427" t="s">
+      <c r="I3" s="383" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="428"/>
+      <c r="J3" s="384"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="419" t="s">
+      <c r="C4" s="373" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="420"/>
+      <c r="D4" s="374"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4558,10 +4558,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="421">
+      <c r="C5" s="375">
         <v>43647</v>
       </c>
-      <c r="D5" s="420"/>
+      <c r="D5" s="374"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4569,10 +4569,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="410">
+      <c r="I5" s="385">
         <v>28698864088</v>
       </c>
-      <c r="J5" s="411"/>
+      <c r="J5" s="386"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4595,11 +4595,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="429">
+      <c r="I6" s="387">
         <f>I4*I5/1000000</f>
         <v>120535.2291696</v>
       </c>
-      <c r="J6" s="430"/>
+      <c r="J6" s="388"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4639,11 +4639,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>10.265698004275913</v>
+        <v>10.243135289993221</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>9.7411788227500518E-2</v>
+        <v>9.7626358696728865E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.58018847892640169</v>
+        <v>0.5789132975529897</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4673,36 +4673,36 @@
       <c r="B11" s="312" t="s">
         <v>275</v>
       </c>
-      <c r="C11" s="438">
+      <c r="C11" s="362">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="439"/>
+      <c r="D11" s="363"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="436" t="s">
+      <c r="I11" s="397" t="s">
         <v>303</v>
       </c>
-      <c r="J11" s="437"/>
+      <c r="J11" s="398"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="313" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="367">
+      <c r="C12" s="419">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="368"/>
+      <c r="D12" s="420"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="133"/>
       <c r="I12" s="135">
-        <v>1.1396682895075876</v>
+        <v>1.1421786546707153</v>
       </c>
       <c r="J12" s="136" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4720,21 +4720,21 @@
       </c>
       <c r="D14" s="184">
         <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>1.719777259078529</v>
+        <v>1.7273619638864131</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>232</v>
       </c>
       <c r="F14" s="184">
         <f ca="1">MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>6.5577198831257792</v>
+        <v>6.5721646752602183</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
         <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
-        <v>3.5247083363527558</v>
+        <v>3.5348523904069431</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4767,57 +4767,57 @@
         <f>I4</f>
         <v>4.2</v>
       </c>
-      <c r="C16" s="375">
+      <c r="C16" s="426">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-0.26078372943982009</v>
-      </c>
-      <c r="E16" s="372">
+        <v>-0.25836847847453737</v>
+      </c>
+      <c r="E16" s="423">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>0.20514029211136575</v>
+        <v>0.20559215784072876</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>4.8842926693182319E-2</v>
-      </c>
-      <c r="G16" s="400" t="s">
+        <v>4.8950513771602082E-2</v>
+      </c>
+      <c r="G16" s="392" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="431">
+      <c r="H16" s="389">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>0.65985925846558635</v>
-      </c>
-      <c r="I16" s="400" t="s">
+        <v>0.66131274077291202</v>
+      </c>
+      <c r="I16" s="392" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>3.5401407415344139</v>
+        <v>3.5386872592270882</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="289">
         <f ca="1">H14/(1+C16)</f>
-        <v>3.2042803057752325</v>
-      </c>
-      <c r="C17" s="376"/>
+        <v>3.2135021730972206</v>
+      </c>
+      <c r="C17" s="427"/>
       <c r="D17" s="288">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="373"/>
+      <c r="E17" s="424"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
-        <v>6.4020707471075883E-2</v>
-      </c>
-      <c r="G17" s="401"/>
-      <c r="H17" s="432"/>
-      <c r="I17" s="401"/>
+        <v>6.3977600376904684E-2</v>
+      </c>
+      <c r="G17" s="393"/>
+      <c r="H17" s="390"/>
+      <c r="I17" s="393"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>2.5444210473096462</v>
+        <v>2.5521894323243086</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4825,22 +4825,22 @@
         <f>C35</f>
         <v>2.4</v>
       </c>
-      <c r="C18" s="377"/>
+      <c r="C18" s="428"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.36862847348031502</v>
-      </c>
-      <c r="E18" s="374"/>
+        <v>0.37285516266955965</v>
+      </c>
+      <c r="E18" s="425"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
-        <v>8.5475121713069063E-2</v>
-      </c>
-      <c r="G18" s="402"/>
-      <c r="H18" s="433"/>
-      <c r="I18" s="402"/>
+        <v>8.5663399100303655E-2</v>
+      </c>
+      <c r="G18" s="394"/>
+      <c r="H18" s="391"/>
+      <c r="I18" s="394"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>1.7401407415344137</v>
+        <v>1.7386872592270879</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4871,44 +4871,44 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="424" t="s">
+      <c r="C21" s="378" t="s">
         <v>310</v>
       </c>
-      <c r="D21" s="425"/>
-      <c r="E21" s="425"/>
-      <c r="F21" s="425"/>
-      <c r="G21" s="425"/>
-      <c r="H21" s="425"/>
-      <c r="I21" s="425"/>
-      <c r="J21" s="426"/>
+      <c r="D21" s="379"/>
+      <c r="E21" s="379"/>
+      <c r="F21" s="379"/>
+      <c r="G21" s="379"/>
+      <c r="H21" s="379"/>
+      <c r="I21" s="379"/>
+      <c r="J21" s="380"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="435"/>
-      <c r="D22" s="379"/>
-      <c r="E22" s="379"/>
-      <c r="F22" s="379"/>
-      <c r="G22" s="435"/>
-      <c r="H22" s="435"/>
-      <c r="I22" s="379"/>
-      <c r="J22" s="379"/>
+      <c r="C22" s="396"/>
+      <c r="D22" s="367"/>
+      <c r="E22" s="367"/>
+      <c r="F22" s="367"/>
+      <c r="G22" s="396"/>
+      <c r="H22" s="396"/>
+      <c r="I22" s="367"/>
+      <c r="J22" s="367"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="398"/>
-      <c r="D23" s="399"/>
-      <c r="E23" s="399"/>
-      <c r="F23" s="399"/>
-      <c r="G23" s="398"/>
-      <c r="H23" s="398"/>
-      <c r="I23" s="399"/>
-      <c r="J23" s="399"/>
+      <c r="C23" s="381"/>
+      <c r="D23" s="382"/>
+      <c r="E23" s="382"/>
+      <c r="F23" s="382"/>
+      <c r="G23" s="381"/>
+      <c r="H23" s="381"/>
+      <c r="I23" s="382"/>
+      <c r="J23" s="382"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4945,68 +4945,68 @@
       </c>
       <c r="J25" s="351">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>2.8197666690822047</v>
+        <v>2.8278819123255543</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="422">
+      <c r="C26" s="376">
         <v>43665</v>
       </c>
-      <c r="D26" s="423"/>
-      <c r="E26" s="380" t="str">
+      <c r="D26" s="377"/>
+      <c r="E26" s="429" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="381"/>
-      <c r="G26" s="381"/>
-      <c r="H26" s="382"/>
-      <c r="I26" s="434" t="s">
+      <c r="F26" s="430"/>
+      <c r="G26" s="430"/>
+      <c r="H26" s="431"/>
+      <c r="I26" s="395" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="434"/>
+      <c r="J26" s="395"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="371">
+      <c r="C27" s="422">
         <f>C31/D25</f>
         <v>0.187</v>
       </c>
-      <c r="D27" s="370"/>
-      <c r="E27" s="369">
+      <c r="D27" s="402"/>
+      <c r="E27" s="421">
         <f>E31/D25</f>
         <v>0.08</v>
       </c>
-      <c r="F27" s="370"/>
-      <c r="G27" s="404">
+      <c r="F27" s="402"/>
+      <c r="G27" s="406">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="405"/>
-      <c r="I27" s="403">
+      <c r="H27" s="407"/>
+      <c r="I27" s="405">
         <f>C27+E27+G27</f>
         <v>0.26700000000000002</v>
       </c>
-      <c r="J27" s="403"/>
+      <c r="J27" s="405"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="365">
+      <c r="C28" s="366">
         <v>20000</v>
       </c>
-      <c r="D28" s="379"/>
-      <c r="E28" s="365">
+      <c r="D28" s="367"/>
+      <c r="E28" s="366">
         <v>20000</v>
       </c>
-      <c r="F28" s="379"/>
-      <c r="G28" s="410"/>
-      <c r="H28" s="411"/>
+      <c r="F28" s="367"/>
+      <c r="G28" s="385"/>
+      <c r="H28" s="386"/>
       <c r="I28" s="414">
         <f>C28+E28+G28</f>
         <v>40000</v>
@@ -5017,16 +5017,16 @@
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="378">
+      <c r="C29" s="368">
         <v>5.61</v>
       </c>
-      <c r="D29" s="379"/>
-      <c r="E29" s="378">
+      <c r="D29" s="367"/>
+      <c r="E29" s="368">
         <v>2.4</v>
       </c>
-      <c r="F29" s="379"/>
-      <c r="G29" s="406"/>
-      <c r="H29" s="407"/>
+      <c r="F29" s="367"/>
+      <c r="G29" s="408"/>
+      <c r="H29" s="409"/>
       <c r="I29" s="412"/>
       <c r="J29" s="412"/>
     </row>
@@ -5034,21 +5034,21 @@
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="391">
+      <c r="C30" s="364">
         <f>C29*$I$5/1000000</f>
         <v>161000.62753368003</v>
       </c>
-      <c r="D30" s="392"/>
-      <c r="E30" s="391">
+      <c r="D30" s="365"/>
+      <c r="E30" s="364">
         <f>E29*$I$5/1000000</f>
         <v>68877.273811199993</v>
       </c>
-      <c r="F30" s="392"/>
-      <c r="G30" s="408">
+      <c r="F30" s="365"/>
+      <c r="G30" s="410">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="409"/>
+      <c r="H30" s="411"/>
       <c r="I30" s="413"/>
       <c r="J30" s="413"/>
     </row>
@@ -5056,102 +5056,102 @@
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="393">
+      <c r="C31" s="438">
         <f>C28*C29</f>
         <v>112200</v>
       </c>
-      <c r="D31" s="394"/>
-      <c r="E31" s="395">
+      <c r="D31" s="439"/>
+      <c r="E31" s="399">
         <f>E28*E29</f>
         <v>48000</v>
       </c>
-      <c r="F31" s="396"/>
-      <c r="G31" s="415">
+      <c r="F31" s="400"/>
+      <c r="G31" s="369">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="416"/>
-      <c r="I31" s="395">
+      <c r="H31" s="370"/>
+      <c r="I31" s="399">
         <f>C31+E31+G31</f>
         <v>160200</v>
       </c>
-      <c r="J31" s="395"/>
+      <c r="J31" s="399"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="387"/>
-      <c r="D32" s="388"/>
-      <c r="E32" s="397">
+      <c r="C32" s="434"/>
+      <c r="D32" s="435"/>
+      <c r="E32" s="401">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>4.0049999999999999</v>
       </c>
-      <c r="F32" s="370"/>
+      <c r="F32" s="402"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="397">
+      <c r="I32" s="401">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>4.0049999999999999</v>
       </c>
-      <c r="J32" s="397"/>
+      <c r="J32" s="401"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="389"/>
-      <c r="D33" s="390"/>
-      <c r="E33" s="391">
+      <c r="C33" s="436"/>
+      <c r="D33" s="437"/>
+      <c r="E33" s="364">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>114938.95067244</v>
       </c>
-      <c r="F33" s="392"/>
+      <c r="F33" s="365"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="391">
+      <c r="I33" s="364">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>114938.95067244</v>
       </c>
-      <c r="J33" s="391"/>
+      <c r="J33" s="364"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>320</v>
       </c>
-      <c r="C35" s="383">
+      <c r="C35" s="403">
         <f>E29</f>
         <v>2.4</v>
       </c>
-      <c r="D35" s="384"/>
-      <c r="G35" s="385" t="s">
+      <c r="D35" s="404"/>
+      <c r="G35" s="432" t="s">
         <v>321</v>
       </c>
-      <c r="H35" s="386"/>
-      <c r="I35" s="383">
+      <c r="H35" s="433"/>
+      <c r="I35" s="403">
         <f ca="1">'FCFF Model'!C34*0.8</f>
-        <v>5.6079606298354916</v>
-      </c>
-      <c r="J35" s="384"/>
+        <v>5.6203133724106253</v>
+      </c>
+      <c r="J35" s="404"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>322</v>
       </c>
-      <c r="C36" s="365">
+      <c r="C36" s="366">
         <v>20000</v>
       </c>
-      <c r="D36" s="366"/>
-      <c r="G36" s="362" t="s">
+      <c r="D36" s="418"/>
+      <c r="G36" s="415" t="s">
         <v>328</v>
       </c>
-      <c r="H36" s="362"/>
-      <c r="I36" s="363">
+      <c r="H36" s="415"/>
+      <c r="I36" s="416">
         <f ca="1">I35/C29-1</f>
-        <v>-3.6352409349527104E-4</v>
-      </c>
-      <c r="J36" s="364"/>
+        <v>1.8383908040329189E-3</v>
+      </c>
+      <c r="J36" s="417"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="F45" s="355">
         <f ca="1">I35/C29-1</f>
-        <v>-3.6352409349527104E-4</v>
+        <v>1.8383908040329189E-3</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="F46" s="355">
         <f ca="1">D14/C29-1</f>
-        <v>-0.69344433884518208</v>
+        <v>-0.69209234155322408</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="F48" s="214">
         <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
-        <v>0</v>
+        <v>0.37861564625850341</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5250,11 +5250,11 @@
       </c>
       <c r="E49" s="358">
         <f ca="1">F45/ABS(F46)</f>
-        <v>-5.2422966506678937E-4</v>
+        <v>2.6562796517977955E-3</v>
       </c>
       <c r="F49" s="356">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>-5.2422966506678937E-4</v>
+        <v>2.6562796517977955E-3</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6188,12 +6188,38 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -6210,38 +6236,12 @@
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
     <cfRule type="containsBlanks" priority="6">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="I4" s="91">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>5.9299556943938567</v>
+        <v>5.9430177005329679</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10490,7 +10490,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>25367201</v>
       </c>
-      <c r="E53" s="394"/>
+      <c r="E53" s="439"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10509,7 +10509,7 @@
       <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="379"/>
+      <c r="E54" s="367"/>
       <c r="F54" s="6" t="s">
         <v>135</v>
       </c>
@@ -10523,7 +10523,7 @@
       <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="379"/>
+      <c r="E55" s="367"/>
       <c r="F55" s="5" t="s">
         <v>136</v>
       </c>
@@ -10606,11 +10606,11 @@
       <c r="B63" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D63" s="363">
+      <c r="D63" s="416">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-2.8753814455569179E-2</v>
       </c>
-      <c r="E63" s="364"/>
+      <c r="E63" s="417"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
@@ -12918,7 +12918,7 @@
       </c>
       <c r="C30" s="251">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)*Exchange_Rate</f>
-        <v>1.719777259078529</v>
+        <v>1.7273619638864131</v>
       </c>
       <c r="D30" s="23" t="str">
         <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
@@ -12926,7 +12926,7 @@
       </c>
       <c r="E30" s="250">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>6.5577198831257792</v>
+        <v>6.5721646752602183</v>
       </c>
       <c r="F30" s="30"/>
       <c r="H30" s="6"/>
@@ -12962,7 +12962,7 @@
       </c>
       <c r="C33" s="252">
         <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
-        <v>3.5247083363527558</v>
+        <v>3.5348523904069431</v>
       </c>
       <c r="D33" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12970,11 +12970,11 @@
       </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>7.2616760482382903</v>
+        <v>7.2866828158686765</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.48690361150659839</v>
+        <v>0.48723167945084561</v>
       </c>
       <c r="G33" s="87"/>
       <c r="H33" s="6"/>
@@ -12986,7 +12986,7 @@
       </c>
       <c r="C34" s="253">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G34)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>7.0099507872943638</v>
+        <v>7.0253917155132815</v>
       </c>
       <c r="D34" s="208" t="str">
         <f>D33</f>
@@ -12994,7 +12994,7 @@
       </c>
       <c r="E34" s="120">
         <f ca="1">(C34-G19)/C9</f>
-        <v>15.853373967107105</v>
+        <v>15.891438403860432</v>
       </c>
       <c r="F34" s="158">
         <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>

--- a/financial_models/Opportunities/1766.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/1766.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01A8CA1B-E9DD-482E-85B2-D54ADFD2CFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083A2E99-42E2-4949-B3EA-6BF1115E8EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="341">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1201,6 +1201,9 @@
   </si>
   <si>
     <t>5. The probability of a recession affecting the company</t>
+  </si>
+  <si>
+    <t>Quarter</t>
   </si>
 </sst>
 </file>
@@ -2948,7 +2951,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="455">
+  <cellXfs count="454">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3599,9 +3602,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="182" fontId="2" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3865,150 +3865,16 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4019,6 +3885,7 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4040,6 +3907,10 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4049,6 +3920,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4059,10 +3934,135 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4476,8 +4476,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4505,7 +4505,7 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="307" t="str">
+      <c r="C2" s="306" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>1766.HK : CRRC</v>
       </c>
@@ -4521,27 +4521,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="371" t="s">
+      <c r="C3" s="416" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="372"/>
+      <c r="D3" s="417"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="383" t="s">
+      <c r="I3" s="426" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="384"/>
+      <c r="J3" s="427"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="373" t="s">
+      <c r="C4" s="418" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="374"/>
+      <c r="D4" s="419"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4558,10 +4558,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="375">
+      <c r="C5" s="420">
         <v>43647</v>
       </c>
-      <c r="D5" s="374"/>
+      <c r="D5" s="419"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4569,10 +4569,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="385">
+      <c r="I5" s="409">
         <v>28698864088</v>
       </c>
-      <c r="J5" s="386"/>
+      <c r="J5" s="410"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4580,26 +4580,26 @@
       <c r="B6" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="269">
-        <v>8</v>
-      </c>
-      <c r="D6" s="270">
+      <c r="C6" s="268">
+        <v>6</v>
+      </c>
+      <c r="D6" s="269">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
-        <v>45077</v>
-      </c>
-      <c r="E6" s="353">
-        <f>Data!C3</f>
+        <v>45016</v>
+      </c>
+      <c r="E6" s="352">
+        <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
         <v>44561</v>
       </c>
       <c r="G6" s="134" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="387">
+      <c r="I6" s="428">
         <f>I4*I5/1000000</f>
         <v>120535.2291696</v>
       </c>
-      <c r="J6" s="388"/>
+      <c r="J6" s="429"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4631,8 +4631,8 @@
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="300"/>
-      <c r="D9" s="298"/>
+      <c r="C9" s="299"/>
+      <c r="D9" s="297"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>13</v>
@@ -4650,10 +4650,10 @@
       <c r="B10" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C10" s="299" t="s">
+      <c r="C10" s="298" t="s">
         <v>272</v>
       </c>
-      <c r="D10" s="299">
+      <c r="D10" s="298">
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="E10" s="5"/>
@@ -4670,33 +4670,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="312" t="s">
+      <c r="B11" s="311" t="s">
         <v>275</v>
       </c>
-      <c r="C11" s="362">
+      <c r="C11" s="437">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="363"/>
+      <c r="D11" s="438"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="397" t="s">
+      <c r="I11" s="435" t="s">
         <v>303</v>
       </c>
-      <c r="J11" s="398"/>
+      <c r="J11" s="436"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="313" t="s">
+      <c r="B12" s="312" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="419">
+      <c r="C12" s="366">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="420"/>
+      <c r="D12" s="367"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4767,14 +4767,14 @@
         <f>I4</f>
         <v>4.2</v>
       </c>
-      <c r="C16" s="426">
+      <c r="C16" s="374">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
         <v>-0.25836847847453737</v>
       </c>
-      <c r="E16" s="423">
+      <c r="E16" s="371">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.20559215784072876</v>
       </c>
@@ -4782,14 +4782,14 @@
         <f>E16/B16</f>
         <v>4.8950513771602082E-2</v>
       </c>
-      <c r="G16" s="392" t="s">
+      <c r="G16" s="399" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="389">
+      <c r="H16" s="430">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>0.66131274077291202</v>
       </c>
-      <c r="I16" s="392" t="s">
+      <c r="I16" s="399" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
@@ -4798,46 +4798,46 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="289">
+      <c r="B17" s="288">
         <f ca="1">H14/(1+C16)</f>
         <v>3.2135021730972206</v>
       </c>
-      <c r="C17" s="427"/>
-      <c r="D17" s="288">
+      <c r="C17" s="375"/>
+      <c r="D17" s="287">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="424"/>
+      <c r="E17" s="372"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>6.3977600376904684E-2</v>
       </c>
-      <c r="G17" s="393"/>
-      <c r="H17" s="390"/>
-      <c r="I17" s="393"/>
+      <c r="G17" s="400"/>
+      <c r="H17" s="431"/>
+      <c r="I17" s="400"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>2.5521894323243086</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="352">
+      <c r="B18" s="351">
         <f>C35</f>
         <v>2.4</v>
       </c>
-      <c r="C18" s="428"/>
+      <c r="C18" s="376"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
         <v>0.37285516266955965</v>
       </c>
-      <c r="E18" s="425"/>
+      <c r="E18" s="373"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>8.5663399100303655E-2</v>
       </c>
-      <c r="G18" s="394"/>
-      <c r="H18" s="391"/>
-      <c r="I18" s="394"/>
+      <c r="G18" s="401"/>
+      <c r="H18" s="432"/>
+      <c r="I18" s="401"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>1.7386872592270879</v>
@@ -4855,7 +4855,7 @@
       <c r="C20" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="290" t="s">
+      <c r="D20" s="289" t="s">
         <v>307</v>
       </c>
       <c r="E20" s="265" t="s">
@@ -4871,44 +4871,44 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="378" t="s">
+      <c r="C21" s="423" t="s">
         <v>310</v>
       </c>
-      <c r="D21" s="379"/>
-      <c r="E21" s="379"/>
-      <c r="F21" s="379"/>
-      <c r="G21" s="379"/>
-      <c r="H21" s="379"/>
-      <c r="I21" s="379"/>
-      <c r="J21" s="380"/>
+      <c r="D21" s="424"/>
+      <c r="E21" s="424"/>
+      <c r="F21" s="424"/>
+      <c r="G21" s="424"/>
+      <c r="H21" s="424"/>
+      <c r="I21" s="424"/>
+      <c r="J21" s="425"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="396"/>
-      <c r="D22" s="367"/>
-      <c r="E22" s="367"/>
-      <c r="F22" s="367"/>
-      <c r="G22" s="396"/>
-      <c r="H22" s="396"/>
-      <c r="I22" s="367"/>
-      <c r="J22" s="367"/>
+      <c r="C22" s="434"/>
+      <c r="D22" s="378"/>
+      <c r="E22" s="378"/>
+      <c r="F22" s="378"/>
+      <c r="G22" s="434"/>
+      <c r="H22" s="434"/>
+      <c r="I22" s="378"/>
+      <c r="J22" s="378"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="381"/>
-      <c r="D23" s="382"/>
-      <c r="E23" s="382"/>
-      <c r="F23" s="382"/>
-      <c r="G23" s="381"/>
-      <c r="H23" s="381"/>
-      <c r="I23" s="382"/>
-      <c r="J23" s="382"/>
+      <c r="C23" s="397"/>
+      <c r="D23" s="398"/>
+      <c r="E23" s="398"/>
+      <c r="F23" s="398"/>
+      <c r="G23" s="397"/>
+      <c r="H23" s="397"/>
+      <c r="I23" s="398"/>
+      <c r="J23" s="398"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4937,13 +4937,13 @@
         <v>323</v>
       </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="350">
+      <c r="H25" s="349">
         <v>0.15</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="J25" s="351">
+      <c r="J25" s="350">
         <f ca="1">H14/(H25+C16+1)</f>
         <v>2.8278819123255543</v>
       </c>
@@ -4952,213 +4952,213 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="376">
+      <c r="C26" s="421">
         <v>43665</v>
       </c>
-      <c r="D26" s="377"/>
-      <c r="E26" s="429" t="str">
+      <c r="D26" s="422"/>
+      <c r="E26" s="379" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="430"/>
-      <c r="G26" s="430"/>
-      <c r="H26" s="431"/>
-      <c r="I26" s="395" t="s">
+      <c r="F26" s="380"/>
+      <c r="G26" s="380"/>
+      <c r="H26" s="381"/>
+      <c r="I26" s="433" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="395"/>
+      <c r="J26" s="433"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="422">
+      <c r="C27" s="370">
         <f>C31/D25</f>
         <v>0.187</v>
       </c>
-      <c r="D27" s="402"/>
-      <c r="E27" s="421">
+      <c r="D27" s="369"/>
+      <c r="E27" s="368">
         <f>E31/D25</f>
         <v>0.08</v>
       </c>
-      <c r="F27" s="402"/>
-      <c r="G27" s="406">
+      <c r="F27" s="369"/>
+      <c r="G27" s="403">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="407"/>
-      <c r="I27" s="405">
+      <c r="H27" s="404"/>
+      <c r="I27" s="402">
         <f>C27+E27+G27</f>
         <v>0.26700000000000002</v>
       </c>
-      <c r="J27" s="405"/>
+      <c r="J27" s="402"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="366">
+      <c r="C28" s="364">
         <v>20000</v>
       </c>
-      <c r="D28" s="367"/>
-      <c r="E28" s="366">
+      <c r="D28" s="378"/>
+      <c r="E28" s="364">
         <v>20000</v>
       </c>
-      <c r="F28" s="367"/>
-      <c r="G28" s="385"/>
-      <c r="H28" s="386"/>
-      <c r="I28" s="414">
+      <c r="F28" s="378"/>
+      <c r="G28" s="409"/>
+      <c r="H28" s="410"/>
+      <c r="I28" s="413">
         <f>C28+E28+G28</f>
         <v>40000</v>
       </c>
-      <c r="J28" s="414"/>
+      <c r="J28" s="413"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="368">
+      <c r="C29" s="377">
         <v>5.61</v>
       </c>
-      <c r="D29" s="367"/>
-      <c r="E29" s="368">
+      <c r="D29" s="378"/>
+      <c r="E29" s="377">
         <v>2.4</v>
       </c>
-      <c r="F29" s="367"/>
-      <c r="G29" s="408"/>
-      <c r="H29" s="409"/>
-      <c r="I29" s="412"/>
-      <c r="J29" s="412"/>
+      <c r="F29" s="378"/>
+      <c r="G29" s="405"/>
+      <c r="H29" s="406"/>
+      <c r="I29" s="411"/>
+      <c r="J29" s="411"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="364">
+      <c r="C30" s="390">
         <f>C29*$I$5/1000000</f>
         <v>161000.62753368003</v>
       </c>
-      <c r="D30" s="365"/>
-      <c r="E30" s="364">
+      <c r="D30" s="391"/>
+      <c r="E30" s="390">
         <f>E29*$I$5/1000000</f>
         <v>68877.273811199993</v>
       </c>
-      <c r="F30" s="365"/>
-      <c r="G30" s="410">
+      <c r="F30" s="391"/>
+      <c r="G30" s="407">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="411"/>
-      <c r="I30" s="413"/>
-      <c r="J30" s="413"/>
+      <c r="H30" s="408"/>
+      <c r="I30" s="412"/>
+      <c r="J30" s="412"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="438">
+      <c r="C31" s="392">
         <f>C28*C29</f>
         <v>112200</v>
       </c>
-      <c r="D31" s="439"/>
-      <c r="E31" s="399">
+      <c r="D31" s="393"/>
+      <c r="E31" s="394">
         <f>E28*E29</f>
         <v>48000</v>
       </c>
-      <c r="F31" s="400"/>
-      <c r="G31" s="369">
+      <c r="F31" s="395"/>
+      <c r="G31" s="414">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="370"/>
-      <c r="I31" s="399">
+      <c r="H31" s="415"/>
+      <c r="I31" s="394">
         <f>C31+E31+G31</f>
         <v>160200</v>
       </c>
-      <c r="J31" s="399"/>
+      <c r="J31" s="394"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="434"/>
-      <c r="D32" s="435"/>
-      <c r="E32" s="401">
+      <c r="C32" s="386"/>
+      <c r="D32" s="387"/>
+      <c r="E32" s="396">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>4.0049999999999999</v>
       </c>
-      <c r="F32" s="402"/>
+      <c r="F32" s="369"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="401">
+      <c r="I32" s="396">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>4.0049999999999999</v>
       </c>
-      <c r="J32" s="401"/>
+      <c r="J32" s="396"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="436"/>
-      <c r="D33" s="437"/>
-      <c r="E33" s="364">
+      <c r="C33" s="388"/>
+      <c r="D33" s="389"/>
+      <c r="E33" s="390">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>114938.95067244</v>
       </c>
-      <c r="F33" s="365"/>
+      <c r="F33" s="391"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="364">
+      <c r="I33" s="390">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>114938.95067244</v>
       </c>
-      <c r="J33" s="364"/>
+      <c r="J33" s="390"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>320</v>
       </c>
-      <c r="C35" s="403">
+      <c r="C35" s="382">
         <f>E29</f>
         <v>2.4</v>
       </c>
-      <c r="D35" s="404"/>
-      <c r="G35" s="432" t="s">
+      <c r="D35" s="383"/>
+      <c r="G35" s="384" t="s">
         <v>321</v>
       </c>
-      <c r="H35" s="433"/>
-      <c r="I35" s="403">
+      <c r="H35" s="385"/>
+      <c r="I35" s="382">
         <f ca="1">'FCFF Model'!C34*0.8</f>
         <v>5.6203133724106253</v>
       </c>
-      <c r="J35" s="404"/>
+      <c r="J35" s="383"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>322</v>
       </c>
-      <c r="C36" s="366">
+      <c r="C36" s="364">
         <v>20000</v>
       </c>
-      <c r="D36" s="418"/>
-      <c r="G36" s="415" t="s">
+      <c r="D36" s="365"/>
+      <c r="G36" s="361" t="s">
         <v>328</v>
       </c>
-      <c r="H36" s="415"/>
-      <c r="I36" s="416">
+      <c r="H36" s="361"/>
+      <c r="I36" s="362">
         <f ca="1">I35/C29-1</f>
         <v>1.8383908040329189E-3</v>
       </c>
-      <c r="J36" s="417"/>
+      <c r="J36" s="363"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="G38" s="346" t="s">
+      <c r="G38" s="345" t="s">
         <v>139</v>
       </c>
       <c r="H38" s="133"/>
@@ -5187,8 +5187,8 @@
       <c r="B41" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E41" s="354"/>
-      <c r="F41" s="355">
+      <c r="E41" s="353"/>
+      <c r="F41" s="354">
         <f>'Qualitative Analysis'!E64</f>
         <v>0.37307823129251699</v>
       </c>
@@ -5197,7 +5197,7 @@
       <c r="B42" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E42" s="354">
+      <c r="E42" s="353">
         <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
         <v>0</v>
       </c>
@@ -5210,7 +5210,7 @@
       <c r="B43" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F43" s="361">
+      <c r="F43" s="360">
         <f>AVERAGE(80%*0.5,0.6)</f>
         <v>0.5</v>
       </c>
@@ -5220,7 +5220,7 @@
       <c r="B45" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F45" s="355">
+      <c r="F45" s="354">
         <f ca="1">I35/C29-1</f>
         <v>1.8383908040329189E-3</v>
       </c>
@@ -5229,7 +5229,7 @@
       <c r="B46" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="F46" s="355">
+      <c r="F46" s="354">
         <f ca="1">D14/C29-1</f>
         <v>-0.69209234155322408</v>
       </c>
@@ -5248,11 +5248,11 @@
       <c r="B49" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="E49" s="358">
+      <c r="E49" s="357">
         <f ca="1">F45/ABS(F46)</f>
         <v>2.6562796517977955E-3</v>
       </c>
-      <c r="F49" s="356">
+      <c r="F49" s="355">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
         <v>2.6562796517977955E-3</v>
       </c>
@@ -5265,7 +5265,7 @@
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
         <v>0</v>
       </c>
-      <c r="F50" s="357">
+      <c r="F50" s="356">
         <f ca="1">MIN(E50,H50)</f>
         <v>0</v>
       </c>
@@ -6188,6 +6188,44 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="C36:D36"/>
@@ -6204,44 +6242,6 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
     <cfRule type="containsBlanks" priority="6">
@@ -6417,47 +6417,47 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="42"/>
-      <c r="C6" s="278">
+      <c r="C6" s="277">
         <f>C3</f>
         <v>44561</v>
       </c>
-      <c r="D6" s="279">
+      <c r="D6" s="278">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
         <v>44196</v>
       </c>
-      <c r="E6" s="279">
+      <c r="E6" s="278">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
         <v>43830</v>
       </c>
-      <c r="F6" s="279">
+      <c r="F6" s="278">
         <f t="shared" si="0"/>
         <v>43465</v>
       </c>
-      <c r="G6" s="279">
+      <c r="G6" s="278">
         <f t="shared" si="0"/>
         <v>43100</v>
       </c>
-      <c r="H6" s="279">
+      <c r="H6" s="278">
         <f t="shared" si="0"/>
         <v>42735</v>
       </c>
-      <c r="I6" s="279">
+      <c r="I6" s="278">
         <f t="shared" si="0"/>
         <v>42369</v>
       </c>
-      <c r="J6" s="279">
+      <c r="J6" s="278">
         <f t="shared" si="0"/>
         <v>42004</v>
       </c>
-      <c r="K6" s="279">
+      <c r="K6" s="278">
         <f t="shared" si="0"/>
         <v>41639</v>
       </c>
-      <c r="L6" s="279">
+      <c r="L6" s="278">
         <f t="shared" si="0"/>
         <v>41274</v>
       </c>
-      <c r="M6" s="279">
+      <c r="M6" s="278">
         <f t="shared" si="0"/>
         <v>40908</v>
       </c>
@@ -7116,7 +7116,7 @@
       <c r="B24" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="272">
+      <c r="C24" s="271">
         <v>0</v>
       </c>
       <c r="D24" s="140">
@@ -7477,7 +7477,7 @@
         <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$49="Yes",L51,0))</f>
         <v/>
       </c>
-      <c r="M34" s="342" t="str">
+      <c r="M34" s="341" t="str">
         <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$49="Yes",M51,0))</f>
         <v/>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="341" t="s">
+      <c r="C49" s="340" t="s">
         <v>315</v>
       </c>
       <c r="D49" s="6"/>
@@ -8019,9 +8019,9 @@
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="338"/>
+      <c r="C50" s="337"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="338"/>
+      <c r="E50" s="337"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -8033,7 +8033,7 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="339" t="s">
+      <c r="B51" s="338" t="s">
         <v>297</v>
       </c>
       <c r="C51" s="165">
@@ -8056,50 +8056,50 @@
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
-      <c r="B52" s="340" t="s">
+      <c r="B52" s="339" t="s">
         <v>298</v>
       </c>
-      <c r="C52" s="347">
+      <c r="C52" s="346">
         <f>IF(C51="","",C51/C7)</f>
         <v>5.7968002773911891E-2</v>
       </c>
-      <c r="D52" s="347">
+      <c r="D52" s="346">
         <f t="shared" ref="D52:M52" si="27">IF(D51="","",D51/D7)</f>
         <v>5.8640640245518461E-2</v>
       </c>
-      <c r="E52" s="347">
+      <c r="E52" s="346">
         <f t="shared" si="27"/>
         <v>5.2474207628422538E-2</v>
       </c>
-      <c r="F52" s="347" t="str">
+      <c r="F52" s="346" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="G52" s="347" t="str">
+      <c r="G52" s="346" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H52" s="347" t="str">
+      <c r="H52" s="346" t="str">
         <f>IF(H51="","",H51/H7)</f>
         <v/>
       </c>
-      <c r="I52" s="347" t="str">
+      <c r="I52" s="346" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J52" s="347" t="str">
+      <c r="J52" s="346" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K52" s="347" t="str">
+      <c r="K52" s="346" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L52" s="347" t="str">
+      <c r="L52" s="346" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M52" s="348" t="str">
+      <c r="M52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -9469,8 +9469,8 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9499,7 +9499,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="K2" s="346" t="s">
+      <c r="K2" s="345" t="s">
         <v>139</v>
       </c>
     </row>
@@ -9508,7 +9508,7 @@
         <v>257</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="273">
+      <c r="D3" s="272">
         <v>184295625</v>
       </c>
       <c r="E3" s="156" t="str">
@@ -9517,10 +9517,10 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="274" t="s">
+      <c r="H3" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="I3" s="275">
+      <c r="I3" s="274">
         <v>149326777</v>
       </c>
     </row>
@@ -9529,7 +9529,7 @@
         <v>224</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="276">
+      <c r="D4" s="275">
         <f>D3-I3</f>
         <v>34968848</v>
       </c>
@@ -9612,12 +9612,11 @@
         <v>253</v>
       </c>
       <c r="C9" s="254"/>
-      <c r="D9" s="271">
+      <c r="D9" s="270">
         <v>44834</v>
       </c>
-      <c r="E9" s="268" t="str">
-        <f>IF(D9=Data!C3,"FY","Quarter")</f>
-        <v>Quarter</v>
+      <c r="E9" s="289" t="s">
+        <v>340</v>
       </c>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
@@ -10473,11 +10472,11 @@
         <v>264</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="440">
+      <c r="D52" s="439">
         <f>D53+D54+D55</f>
         <v>25367201</v>
       </c>
-      <c r="E52" s="441"/>
+      <c r="E52" s="440"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10486,11 +10485,11 @@
         <v>234</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="443">
+      <c r="D53" s="442">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>25367201</v>
       </c>
-      <c r="E53" s="439"/>
+      <c r="E53" s="393"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10506,10 +10505,10 @@
         <v>134</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="448">
+      <c r="D54" s="447">
         <v>0</v>
       </c>
-      <c r="E54" s="367"/>
+      <c r="E54" s="378"/>
       <c r="F54" s="6" t="s">
         <v>135</v>
       </c>
@@ -10520,10 +10519,10 @@
         <v>133</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="448">
+      <c r="D55" s="447">
         <v>0</v>
       </c>
-      <c r="E55" s="367"/>
+      <c r="E55" s="378"/>
       <c r="F55" s="5" t="s">
         <v>136</v>
       </c>
@@ -10538,8 +10537,8 @@
         <v>137</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="442"/>
-      <c r="E57" s="442"/>
+      <c r="D57" s="441"/>
+      <c r="E57" s="441"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10585,11 +10584,11 @@
         <v>138</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="446">
+      <c r="D60" s="445">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>92354306.16960001</v>
       </c>
-      <c r="E60" s="447"/>
+      <c r="E60" s="446"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10598,7 +10597,7 @@
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="291" t="s">
+      <c r="B62" s="290" t="s">
         <v>263</v>
       </c>
     </row>
@@ -10606,33 +10605,33 @@
       <c r="B63" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D63" s="416">
+      <c r="D63" s="362">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-2.8753814455569179E-2</v>
       </c>
-      <c r="E63" s="417"/>
+      <c r="E63" s="363"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D64" s="444">
+      <c r="D64" s="443">
         <v>1.32E-2</v>
       </c>
-      <c r="E64" s="445"/>
+      <c r="E64" s="444"/>
       <c r="F64" s="265" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="291" t="s">
+      <c r="B65" s="290" t="s">
         <v>267</v>
       </c>
-      <c r="D65" s="444">
+      <c r="D65" s="443">
         <f>D64</f>
         <v>1.32E-2</v>
       </c>
-      <c r="E65" s="445"/>
+      <c r="E65" s="444"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10646,10 +10645,13 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" sqref="D49" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:F35 F19:F20 F16" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{D713D7D6-4088-41DB-8EE0-2FE595A06212}">
+      <formula1>"FY, Quarter"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -10668,7 +10670,7 @@
   <dimension ref="A1:M907"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10701,22 +10703,22 @@
       <c r="B2" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="285" t="s">
+      <c r="C2" s="284" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285">
+      <c r="D2" s="284"/>
+      <c r="E2" s="284">
         <v>1</v>
       </c>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285">
+      <c r="F2" s="284"/>
+      <c r="G2" s="284">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="285">
+      <c r="I2" s="284">
         <v>3</v>
       </c>
-      <c r="J2" s="285"/>
+      <c r="J2" s="284"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
@@ -10725,46 +10727,46 @@
         <f>'FCFF Model'!B3</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C3" s="277">
-        <f>Data!C3</f>
+      <c r="C3" s="276">
+        <f>Dashboard!E6</f>
         <v>44561</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="E3" s="277">
+      <c r="E3" s="276">
         <f>EOMONTH(EDATE(C3,12),0)</f>
         <v>44926</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="G3" s="277">
+      <c r="G3" s="276">
         <f>IF(G9="","",EOMONTH(EDATE(E3,12),0))</f>
         <v>45291</v>
       </c>
       <c r="H3" s="28"/>
-      <c r="I3" s="277">
+      <c r="I3" s="276">
         <f>IF(I20="","",EOMONTH(EDATE(G3,12),0))</f>
         <v>45657</v>
       </c>
-      <c r="J3" s="296"/>
+      <c r="J3" s="295"/>
       <c r="L3" s="72" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="292" t="s">
+      <c r="B4" s="291" t="s">
         <v>311</v>
       </c>
-      <c r="C4" s="293">
+      <c r="C4" s="292">
         <v>90685334</v>
       </c>
       <c r="D4" s="259">
         <f>C4/$C$8</f>
         <v>0.40173937424089934</v>
       </c>
-      <c r="E4" s="293">
+      <c r="E4" s="292">
         <f>C4*(1-11.19%)</f>
         <v>80537645.125400007</v>
       </c>
@@ -10772,7 +10774,7 @@
         <f>E4/$C$8</f>
         <v>0.35678473826334273</v>
       </c>
-      <c r="G4" s="349">
+      <c r="G4" s="348">
         <f>C4*1.15</f>
         <v>104288134.09999999</v>
       </c>
@@ -10780,7 +10782,7 @@
         <f>G4/$C$8</f>
         <v>0.46200028037703422</v>
       </c>
-      <c r="I4" s="349">
+      <c r="I4" s="348">
         <f>G4*1.1</f>
         <v>114716947.51000001</v>
       </c>
@@ -10793,17 +10795,17 @@
       <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="292" t="s">
+      <c r="B5" s="291" t="s">
         <v>312</v>
       </c>
-      <c r="C5" s="293">
+      <c r="C5" s="292">
         <v>54555862</v>
       </c>
       <c r="D5" s="259">
         <f t="shared" ref="D5:D7" si="0">C5/$C$8</f>
         <v>0.24168448076789195</v>
       </c>
-      <c r="E5" s="293">
+      <c r="E5" s="292">
         <f>C5*(1-7.53%)</f>
         <v>50447805.591399997</v>
       </c>
@@ -10811,7 +10813,7 @@
         <f t="shared" ref="F5:H7" si="1">E5/$C$8</f>
         <v>0.22348563936606969</v>
       </c>
-      <c r="G5" s="349">
+      <c r="G5" s="348">
         <f>E5</f>
         <v>50447805.591399997</v>
       </c>
@@ -10819,7 +10821,7 @@
         <f t="shared" si="1"/>
         <v>0.22348563936606969</v>
       </c>
-      <c r="I5" s="349">
+      <c r="I5" s="348">
         <f>C5</f>
         <v>54555862</v>
       </c>
@@ -10832,17 +10834,17 @@
       <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="292" t="s">
+      <c r="B6" s="291" t="s">
         <v>313</v>
       </c>
-      <c r="C6" s="293">
+      <c r="C6" s="292">
         <v>71820826</v>
       </c>
       <c r="D6" s="259">
         <f t="shared" si="0"/>
         <v>0.31816890804751863</v>
       </c>
-      <c r="E6" s="293">
+      <c r="E6" s="292">
         <f>C6*(1.19)</f>
         <v>85466782.939999998</v>
       </c>
@@ -10850,7 +10852,7 @@
         <f t="shared" si="1"/>
         <v>0.37862100057654713</v>
       </c>
-      <c r="G6" s="349">
+      <c r="G6" s="348">
         <f>E6*0.9</f>
         <v>76920104.645999998</v>
       </c>
@@ -10858,7 +10860,7 @@
         <f t="shared" si="1"/>
         <v>0.3407589005188924</v>
       </c>
-      <c r="I6" s="349">
+      <c r="I6" s="348">
         <f>E6</f>
         <v>85466782.939999998</v>
       </c>
@@ -10871,17 +10873,17 @@
       <c r="M6" s="57"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="292" t="s">
+      <c r="B7" s="291" t="s">
         <v>314</v>
       </c>
-      <c r="C7" s="293">
+      <c r="C7" s="292">
         <v>8669733</v>
       </c>
       <c r="D7" s="259">
         <f t="shared" si="0"/>
         <v>3.8407236943690089E-2</v>
       </c>
-      <c r="E7" s="293">
+      <c r="E7" s="292">
         <f>C7*(1-4.96%)</f>
         <v>8239714.2432000004</v>
       </c>
@@ -10889,7 +10891,7 @@
         <f t="shared" si="1"/>
         <v>3.6502237991283062E-2</v>
       </c>
-      <c r="G7" s="349">
+      <c r="G7" s="348">
         <f>E7</f>
         <v>8239714.2432000004</v>
       </c>
@@ -10897,7 +10899,7 @@
         <f t="shared" si="1"/>
         <v>3.6502237991283062E-2</v>
       </c>
-      <c r="I7" s="349">
+      <c r="I7" s="348">
         <v>8312338</v>
       </c>
       <c r="J7" s="259">
@@ -10917,12 +10919,12 @@
         <v>225731755</v>
       </c>
       <c r="D8" s="258"/>
-      <c r="E8" s="337">
+      <c r="E8" s="336">
         <f>SUM(E4:E7)</f>
         <v>224691947.90000001</v>
       </c>
       <c r="F8" s="258"/>
-      <c r="G8" s="337">
+      <c r="G8" s="336">
         <f>SUM(G4:G7)</f>
         <v>239895758.58059999</v>
       </c>
@@ -10931,7 +10933,7 @@
         <f>SUM(I4:I7)</f>
         <v>263051930.44999999</v>
       </c>
-      <c r="J8" s="287"/>
+      <c r="J8" s="286"/>
       <c r="K8" s="6"/>
       <c r="L8" s="74"/>
       <c r="M8" s="57"/>
@@ -10956,23 +10958,23 @@
         <f>I8/G8-1</f>
         <v>9.6525974474950926E-2</v>
       </c>
-      <c r="J9" s="327"/>
+      <c r="J9" s="326"/>
       <c r="K9" s="6"/>
       <c r="L9" s="74"/>
       <c r="M9" s="57"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="292" t="s">
+      <c r="B10" s="291" t="s">
         <v>311</v>
       </c>
-      <c r="C10" s="293">
+      <c r="C10" s="292">
         <v>69699352</v>
       </c>
       <c r="D10" s="259">
         <f>1-C10/C4</f>
         <v>0.23141539071797435</v>
       </c>
-      <c r="E10" s="293">
+      <c r="E10" s="292">
         <f>E4*(1-F10)</f>
         <v>61899994.511200003</v>
       </c>
@@ -10980,18 +10982,18 @@
         <f>D10</f>
         <v>0.23141539071797435</v>
       </c>
-      <c r="G10" s="349">
+      <c r="G10" s="348">
         <f>G4*(1-H10)</f>
         <v>79258981.915999994</v>
       </c>
       <c r="H10" s="259">
         <v>0.24</v>
       </c>
-      <c r="I10" s="349">
+      <c r="I10" s="348">
         <f>I4*(1-J10)</f>
         <v>86022055.464776218</v>
       </c>
-      <c r="J10" s="286">
+      <c r="J10" s="285">
         <v>0.25013646778495757</v>
       </c>
       <c r="K10" s="6"/>
@@ -10999,17 +11001,17 @@
       <c r="M10" s="57"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="292" t="s">
+      <c r="B11" s="291" t="s">
         <v>312</v>
       </c>
-      <c r="C11" s="293">
+      <c r="C11" s="292">
         <v>43451544</v>
       </c>
       <c r="D11" s="259">
         <f t="shared" ref="D11:D13" si="5">1-C11/C5</f>
         <v>0.20354032716044335</v>
       </c>
-      <c r="E11" s="293">
+      <c r="E11" s="292">
         <f t="shared" ref="E11:G13" si="6">E5*(1-F11)</f>
         <v>40179642.7368</v>
       </c>
@@ -11017,7 +11019,7 @@
         <f t="shared" ref="F11:F13" si="7">D11</f>
         <v>0.20354032716044335</v>
       </c>
-      <c r="G11" s="349">
+      <c r="G11" s="348">
         <f>C11</f>
         <v>43451544</v>
       </c>
@@ -11025,11 +11027,11 @@
         <f t="shared" ref="H11" si="8">1-G11/G5</f>
         <v>0.13868316985016038</v>
       </c>
-      <c r="I11" s="349">
+      <c r="I11" s="348">
         <f>E11</f>
         <v>40179642.7368</v>
       </c>
-      <c r="J11" s="286">
+      <c r="J11" s="285">
         <v>0.20354032716044335</v>
       </c>
       <c r="K11" s="6"/>
@@ -11037,17 +11039,17 @@
       <c r="M11" s="57"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="292" t="s">
+      <c r="B12" s="291" t="s">
         <v>313</v>
       </c>
-      <c r="C12" s="293">
+      <c r="C12" s="292">
         <v>59899171</v>
       </c>
       <c r="D12" s="259">
         <f t="shared" si="5"/>
         <v>0.1659916164149936</v>
       </c>
-      <c r="E12" s="293">
+      <c r="E12" s="292">
         <f t="shared" si="6"/>
         <v>71280013.489999995</v>
       </c>
@@ -11055,7 +11057,7 @@
         <f t="shared" si="7"/>
         <v>0.1659916164149936</v>
       </c>
-      <c r="G12" s="293">
+      <c r="G12" s="292">
         <f t="shared" si="6"/>
         <v>64152012.140999995</v>
       </c>
@@ -11063,11 +11065,11 @@
         <f>F12</f>
         <v>0.1659916164149936</v>
       </c>
-      <c r="I12" s="293">
+      <c r="I12" s="292">
         <f t="shared" ref="I12" si="9">I6*(1-J12)</f>
         <v>71280013.489999995</v>
       </c>
-      <c r="J12" s="286">
+      <c r="J12" s="285">
         <v>0.1659916164149936</v>
       </c>
       <c r="K12" s="6"/>
@@ -11075,17 +11077,17 @@
       <c r="M12" s="57"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="292" t="s">
+      <c r="B13" s="291" t="s">
         <v>314</v>
       </c>
-      <c r="C13" s="293">
+      <c r="C13" s="292">
         <v>6253825</v>
       </c>
       <c r="D13" s="259">
         <f t="shared" si="5"/>
         <v>0.27866002332482442</v>
       </c>
-      <c r="E13" s="293">
+      <c r="E13" s="292">
         <f t="shared" si="6"/>
         <v>5943635.2800000003</v>
       </c>
@@ -11093,17 +11095,17 @@
         <f t="shared" si="7"/>
         <v>0.27866002332482442</v>
       </c>
-      <c r="G13" s="349">
+      <c r="G13" s="348">
         <f>G7*(1-H13)</f>
         <v>6262182.8248320008</v>
       </c>
       <c r="H13" s="259">
         <v>0.24</v>
       </c>
-      <c r="I13" s="349">
+      <c r="I13" s="348">
         <v>6696416</v>
       </c>
-      <c r="J13" s="286">
+      <c r="J13" s="285">
         <v>0.1944004201946552</v>
       </c>
       <c r="K13" s="6"/>
@@ -11124,16 +11126,16 @@
         <v>179303286.01799998</v>
       </c>
       <c r="F14" s="261"/>
-      <c r="G14" s="281">
+      <c r="G14" s="280">
         <f>SUM(G10:G13)</f>
         <v>193124720.88183197</v>
       </c>
       <c r="H14" s="261"/>
-      <c r="I14" s="281">
+      <c r="I14" s="280">
         <f>IF(I8="","",SUM(I10:I13))</f>
         <v>204178127.69157621</v>
       </c>
-      <c r="J14" s="328"/>
+      <c r="J14" s="327"/>
       <c r="K14" s="6"/>
       <c r="L14" s="116"/>
       <c r="M14" s="1"/>
@@ -11161,7 +11163,7 @@
         <f>(I8-I14)/I8</f>
         <v>0.22381057100667925</v>
       </c>
-      <c r="J15" s="329"/>
+      <c r="J15" s="328"/>
       <c r="K15" s="6"/>
       <c r="L15" s="74"/>
     </row>
@@ -11213,7 +11215,7 @@
       <c r="I17" s="65">
         <v>9.1499999999999998E-2</v>
       </c>
-      <c r="J17" s="330"/>
+      <c r="J17" s="329"/>
       <c r="K17" s="6"/>
       <c r="L17" s="74"/>
     </row>
@@ -11240,7 +11242,7 @@
         <f>I8*I17</f>
         <v>24069251.636174999</v>
       </c>
-      <c r="J18" s="331"/>
+      <c r="J18" s="330"/>
       <c r="K18" s="6"/>
       <c r="L18" s="74"/>
     </row>
@@ -11292,7 +11294,7 @@
         <f>IF(I9="","",IF(ABS(G21+I21)=ABS(G21)+ABS(I21),IF(I21&lt;0,-1,1)*(I21-G21)/G21,"Turn"))</f>
         <v>0.40224591962020123</v>
       </c>
-      <c r="J20" s="332"/>
+      <c r="J20" s="331"/>
       <c r="K20" s="6"/>
       <c r="L20" s="77"/>
       <c r="M20" s="78"/>
@@ -11301,103 +11303,103 @@
       <c r="B21" s="134" t="s">
         <v>245</v>
       </c>
-      <c r="C21" s="319">
+      <c r="C21" s="318">
         <f>C16-C18</f>
         <v>25682245</v>
       </c>
-      <c r="D21" s="320"/>
-      <c r="E21" s="319">
+      <c r="D21" s="319"/>
+      <c r="E21" s="318">
         <f>E16-E18</f>
         <v>24738606.16073342</v>
       </c>
-      <c r="F21" s="320"/>
-      <c r="G21" s="319">
+      <c r="F21" s="319"/>
+      <c r="G21" s="318">
         <f>IF(G9="","",G16-G18)</f>
         <v>24820575.788643122</v>
       </c>
-      <c r="H21" s="320"/>
-      <c r="I21" s="319">
+      <c r="H21" s="319"/>
+      <c r="I21" s="318">
         <f>IF(I9="","",I16-I18)</f>
         <v>34804551.122248776</v>
       </c>
-      <c r="J21" s="333"/>
+      <c r="J21" s="332"/>
       <c r="K21" s="6"/>
       <c r="L21" s="79"/>
       <c r="M21" s="56"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="315" t="s">
+      <c r="B22" s="314" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="316">
+      <c r="C22" s="315">
         <v>0.25</v>
       </c>
-      <c r="D22" s="317"/>
-      <c r="E22" s="318">
+      <c r="D22" s="316"/>
+      <c r="E22" s="317">
         <f>IF(E21="","",C22)</f>
         <v>0.25</v>
       </c>
-      <c r="F22" s="318"/>
-      <c r="G22" s="318">
+      <c r="F22" s="317"/>
+      <c r="G22" s="317">
         <f>IF(G21="","",E22)</f>
         <v>0.25</v>
       </c>
-      <c r="H22" s="318"/>
-      <c r="I22" s="318">
+      <c r="H22" s="317"/>
+      <c r="I22" s="317">
         <f>IF(I21="","",G22)</f>
         <v>0.25</v>
       </c>
-      <c r="J22" s="334"/>
+      <c r="J22" s="333"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="324" t="s">
+      <c r="B23" s="323" t="s">
         <v>316</v>
       </c>
       <c r="C23" s="263">
         <f>C24/C8</f>
         <v>8.5329969414360871E-2</v>
       </c>
-      <c r="D23" s="326"/>
-      <c r="E23" s="325">
+      <c r="D23" s="325"/>
+      <c r="E23" s="324">
         <f>E24/E8</f>
         <v>8.2575075760202912E-2</v>
       </c>
-      <c r="F23" s="325"/>
-      <c r="G23" s="325">
+      <c r="F23" s="324"/>
+      <c r="G23" s="324">
         <f>IF(G8="","",G24/G8)</f>
         <v>7.7598003197826199E-2</v>
       </c>
-      <c r="H23" s="325"/>
-      <c r="I23" s="325">
+      <c r="H23" s="324"/>
+      <c r="I23" s="324">
         <f>IF(I8="","",I24/I8)</f>
         <v>9.9232928255009442E-2</v>
       </c>
-      <c r="J23" s="335"/>
+      <c r="J23" s="334"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="321" t="s">
+      <c r="B24" s="320" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="322">
+      <c r="C24" s="321">
         <f>IF(C21&lt;=0,C21,C21*(1-C22))</f>
         <v>19261683.75</v>
       </c>
-      <c r="D24" s="322"/>
-      <c r="E24" s="323">
+      <c r="D24" s="321"/>
+      <c r="E24" s="322">
         <f>IF(E21="","",IF(E21&lt;=0,E21,E21*(1-E22)))</f>
         <v>18553954.620550066</v>
       </c>
-      <c r="F24" s="322"/>
-      <c r="G24" s="323">
+      <c r="F24" s="321"/>
+      <c r="G24" s="322">
         <f>IF(G21="","",IF(G21&lt;=0,G21,G21*(1-G22)))</f>
         <v>18615431.841482341</v>
       </c>
-      <c r="H24" s="322"/>
-      <c r="I24" s="323">
+      <c r="H24" s="321"/>
+      <c r="I24" s="322">
         <f>IF(I21="","",IF(I21&lt;=0,I21,I21*(1-I22)))</f>
         <v>26103413.341686584</v>
       </c>
-      <c r="J24" s="336"/>
+      <c r="J24" s="335"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12353,19 +12355,19 @@
       <c r="B2" s="92" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="285" t="s">
+      <c r="C2" s="284" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="285">
+      <c r="D2" s="284">
         <v>1</v>
       </c>
-      <c r="E2" s="285">
+      <c r="E2" s="284">
         <v>2</v>
       </c>
-      <c r="F2" s="285">
+      <c r="F2" s="284">
         <v>3</v>
       </c>
-      <c r="G2" s="285" t="str">
+      <c r="G2" s="284" t="str">
         <f>B24</f>
         <v>Exit after Year 3</v>
       </c>
@@ -12377,19 +12379,19 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C3" s="277">
+      <c r="C3" s="276">
         <f>Operation!C3</f>
         <v>44561</v>
       </c>
-      <c r="D3" s="277">
+      <c r="D3" s="276">
         <f>Operation!E3</f>
         <v>44926</v>
       </c>
-      <c r="E3" s="277">
+      <c r="E3" s="276">
         <f>Operation!G3</f>
         <v>45291</v>
       </c>
-      <c r="F3" s="277">
+      <c r="F3" s="276">
         <f>Operation!I3</f>
         <v>45657</v>
       </c>
@@ -12420,7 +12422,7 @@
         <f>Operation!I24</f>
         <v>26103413.341686584</v>
       </c>
-      <c r="G4" s="303">
+      <c r="G4" s="302">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
         <v>3</v>
       </c>
@@ -12465,7 +12467,7 @@
         <f>D6</f>
         <v>0.39560000000000001</v>
       </c>
-      <c r="F6" s="308">
+      <c r="F6" s="307">
         <f>E6</f>
         <v>0.39560000000000001</v>
       </c>
@@ -12477,19 +12479,19 @@
       <c r="B7" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="309">
+      <c r="C7" s="308">
         <f>C4*C6</f>
         <v>7619922.0915000001</v>
       </c>
-      <c r="D7" s="309">
+      <c r="D7" s="308">
         <f>D4*D6</f>
         <v>7339944.4478896065</v>
       </c>
-      <c r="E7" s="310">
+      <c r="E7" s="309">
         <f>E4*E6</f>
         <v>7364264.8364904141</v>
       </c>
-      <c r="F7" s="310">
+      <c r="F7" s="309">
         <f>F4*F6</f>
         <v>10326510.317971213</v>
       </c>
@@ -12534,19 +12536,19 @@
         <f>C8/(Common_Shares/Data!$C$4)</f>
         <v>0.4056523499607021</v>
       </c>
-      <c r="D9" s="305">
+      <c r="D9" s="304">
         <f>D8/(Common_Shares/Data!$C$4)</f>
         <v>0.39074752708938854</v>
       </c>
-      <c r="E9" s="305">
+      <c r="E9" s="304">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
         <v>0.39204224148008815</v>
       </c>
-      <c r="F9" s="305">
+      <c r="F9" s="304">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
         <v>0.54973963343421128</v>
       </c>
-      <c r="G9" s="306">
+      <c r="G9" s="305">
         <f>G8*Data!C$4/Dashboard!I5</f>
         <v>0.54973963343421139</v>
       </c>
@@ -12558,16 +12560,16 @@
       <c r="B10" s="233" t="s">
         <v>246</v>
       </c>
-      <c r="C10" s="311">
+      <c r="C10" s="310">
         <f>C11/C9</f>
         <v>0.44372971096417324</v>
       </c>
-      <c r="D10" s="311">
+      <c r="D10" s="310">
         <f>D11/D9</f>
         <v>0.46065550648724302</v>
       </c>
-      <c r="E10" s="343"/>
-      <c r="F10" s="343"/>
+      <c r="E10" s="342"/>
+      <c r="F10" s="342"/>
       <c r="G10" s="234"/>
       <c r="H10" s="82"/>
       <c r="I10" s="56"/>
@@ -12577,15 +12579,15 @@
       <c r="B11" s="233" t="s">
         <v>260</v>
       </c>
-      <c r="C11" s="283">
+      <c r="C11" s="282">
         <v>0.18</v>
       </c>
-      <c r="D11" s="284">
+      <c r="D11" s="283">
         <v>0.18</v>
       </c>
-      <c r="E11" s="344"/>
-      <c r="F11" s="344"/>
-      <c r="G11" s="282"/>
+      <c r="E11" s="343"/>
+      <c r="F11" s="343"/>
+      <c r="G11" s="281"/>
       <c r="H11" s="82"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
@@ -12601,8 +12603,8 @@
         <f>D11</f>
         <v>0.18</v>
       </c>
-      <c r="E12" s="345"/>
-      <c r="F12" s="345"/>
+      <c r="E12" s="344"/>
+      <c r="F12" s="344"/>
       <c r="G12" s="229">
         <f>G9*D26</f>
         <v>5.4973963343421142</v>
@@ -12757,7 +12759,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-0.88390958339730652</v>
       </c>
-      <c r="E20" s="451" t="str">
+      <c r="E20" s="450" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12780,7 +12782,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-1.2184749853783132</v>
       </c>
-      <c r="E21" s="451"/>
+      <c r="E21" s="450"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>1.8479476691962653</v>
@@ -12802,11 +12804,11 @@
         <f>B3</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="E23" s="454" t="s">
+      <c r="E23" s="453" t="s">
         <v>229</v>
       </c>
-      <c r="F23" s="454"/>
-      <c r="G23" s="454"/>
+      <c r="F23" s="453"/>
+      <c r="G23" s="453"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12819,7 +12821,7 @@
       <c r="D24" s="202" t="s">
         <v>218</v>
       </c>
-      <c r="E24" s="304" t="s">
+      <c r="E24" s="303" t="s">
         <v>226</v>
       </c>
       <c r="F24" s="264" t="s">
@@ -12840,14 +12842,14 @@
         <f>1/D25</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D25" s="297">
+      <c r="D25" s="296">
         <v>6</v>
       </c>
       <c r="E25" s="206">
         <f ca="1">G9*D25/G14</f>
         <v>2.4244502510371473</v>
       </c>
-      <c r="F25" s="452">
+      <c r="F25" s="451">
         <f ca="1">SUM(C15:F15)</f>
         <v>1.1343173438291998</v>
       </c>
@@ -12858,21 +12860,21 @@
       <c r="I25" s="74"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="301" t="s">
+      <c r="B26" s="300" t="s">
         <v>300</v>
       </c>
-      <c r="C26" s="302">
+      <c r="C26" s="301">
         <f t="shared" ref="C26" si="0">1/D26</f>
         <v>0.1</v>
       </c>
-      <c r="D26" s="314">
+      <c r="D26" s="313">
         <v>10</v>
       </c>
       <c r="E26" s="207">
         <f ca="1">G9*D26/G14</f>
         <v>4.0407504183952456</v>
       </c>
-      <c r="F26" s="453"/>
+      <c r="F26" s="452"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>5.7540601449559938</v>
@@ -12881,8 +12883,8 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
-      <c r="C27" s="359"/>
-      <c r="D27" s="360"/>
+      <c r="C27" s="358"/>
+      <c r="D27" s="359"/>
       <c r="E27" s="123"/>
       <c r="F27" s="124"/>
       <c r="G27" s="123"/>
@@ -12943,10 +12945,10 @@
       <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="449" t="s">
+      <c r="C32" s="448" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="450"/>
+      <c r="D32" s="449"/>
       <c r="E32" s="30" t="s">
         <v>217</v>
       </c>
@@ -13000,7 +13002,7 @@
         <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>0.9683554011022022</v>
       </c>
-      <c r="G34" s="280">
+      <c r="G34" s="279">
         <f>Dashboard!D10+4.5%</f>
         <v>7.3999999999999996E-2</v>
       </c>
@@ -14055,7 +14057,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="12"/>
-      <c r="G10" s="294"/>
+      <c r="G10" s="293"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="99" t="s">
@@ -14063,7 +14065,7 @@
       </c>
       <c r="C11" s="93"/>
       <c r="E11" s="6"/>
-      <c r="G11" s="294"/>
+      <c r="G11" s="293"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
@@ -14077,7 +14079,7 @@
         <v>161</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="294" t="s">
+      <c r="G12" s="293" t="s">
         <v>283</v>
       </c>
     </row>
@@ -14093,7 +14095,7 @@
         <v>153</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="294"/>
+      <c r="G13" s="293"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
@@ -14107,7 +14109,7 @@
         <v>153</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="294"/>
+      <c r="G14" s="293"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
@@ -14121,7 +14123,7 @@
         <v>176</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="294"/>
+      <c r="G15" s="293"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
@@ -14135,7 +14137,7 @@
         <v>153</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="294"/>
+      <c r="G16" s="293"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="99" t="s">
@@ -14143,7 +14145,7 @@
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="23"/>
-      <c r="G17" s="294"/>
+      <c r="G17" s="293"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="53" t="s">
@@ -14158,7 +14160,7 @@
         <v>agree</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="294"/>
+      <c r="G18" s="293"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="53" t="s">
@@ -14172,7 +14174,7 @@
         <v>153</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="294"/>
+      <c r="G19" s="293"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="53" t="s">
@@ -14186,7 +14188,7 @@
         <v>176</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="294"/>
+      <c r="G20" s="293"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="53" t="s">
@@ -14200,7 +14202,7 @@
         <v>176</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="294"/>
+      <c r="G21" s="293"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="53" t="s">
@@ -14214,7 +14216,7 @@
         <v>161</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="294"/>
+      <c r="G22" s="293"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="99" t="s">
@@ -14222,7 +14224,7 @@
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="23"/>
-      <c r="G23" s="294"/>
+      <c r="G23" s="293"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
@@ -14236,7 +14238,7 @@
         <v>176</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="294"/>
+      <c r="G24" s="293"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
@@ -14250,7 +14252,7 @@
         <v>153</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="294"/>
+      <c r="G25" s="293"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="53" t="s">
@@ -14264,7 +14266,7 @@
         <v>153</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="294"/>
+      <c r="G26" s="293"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="53" t="s">
@@ -14278,7 +14280,7 @@
         <v>161</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="294"/>
+      <c r="G27" s="293"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="53" t="s">
@@ -14292,7 +14294,7 @@
         <v>176</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="294" t="s">
+      <c r="G28" s="293" t="s">
         <v>318</v>
       </c>
     </row>
@@ -14302,7 +14304,7 @@
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="23"/>
-      <c r="G29" s="294"/>
+      <c r="G29" s="293"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
@@ -14317,7 +14319,7 @@
         <v>Very Low</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="294"/>
+      <c r="G30" s="293"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="53" t="s">
@@ -14331,7 +14333,7 @@
         <v>176</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="294"/>
+      <c r="G31" s="293"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53" t="s">
@@ -14345,7 +14347,7 @@
         <v>176</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="294"/>
+      <c r="G32" s="293"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="53" t="s">
@@ -14359,7 +14361,7 @@
         <v>176</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="294"/>
+      <c r="G33" s="293"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
@@ -14373,7 +14375,7 @@
         <v>153</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="294"/>
+      <c r="G34" s="293"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
@@ -14386,7 +14388,7 @@
       <c r="E35" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="294"/>
+      <c r="G35" s="293"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
@@ -14401,7 +14403,7 @@
         <v>Medium</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="294"/>
+      <c r="G36" s="293"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
@@ -14415,7 +14417,7 @@
         <v>161</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="294"/>
+      <c r="G37" s="293"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="53" t="s">
@@ -14429,7 +14431,7 @@
         <v>154</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="294"/>
+      <c r="G38" s="293"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
@@ -14443,7 +14445,7 @@
         <v>154</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="294"/>
+      <c r="G39" s="293"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
@@ -14457,7 +14459,7 @@
         <v>154</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="294"/>
+      <c r="G40" s="293"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
@@ -14470,7 +14472,7 @@
       <c r="E41" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="G41" s="294"/>
+      <c r="G41" s="293"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
@@ -14485,7 +14487,7 @@
         <v>Low</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="294"/>
+      <c r="G42" s="293"/>
     </row>
     <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="53" t="s">
@@ -14499,7 +14501,7 @@
         <v>153</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="294"/>
+      <c r="G43" s="293"/>
     </row>
     <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="53" t="s">
@@ -14513,7 +14515,7 @@
         <v>161</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="294"/>
+      <c r="G44" s="293"/>
     </row>
     <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="53" t="s">
@@ -14527,7 +14529,7 @@
         <v>153</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="294"/>
+      <c r="G45" s="293"/>
     </row>
     <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="53" t="s">
@@ -14541,7 +14543,7 @@
         <v>176</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="294"/>
+      <c r="G46" s="293"/>
     </row>
     <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="53" t="s">
@@ -14555,7 +14557,7 @@
         <v>176</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="294"/>
+      <c r="G47" s="293"/>
     </row>
     <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="53" t="s">
@@ -14569,7 +14571,7 @@
         <v>176</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="294"/>
+      <c r="G48" s="293"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
@@ -14584,7 +14586,7 @@
         <v>Medium</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="294"/>
+      <c r="G49" s="293"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="53" t="s">
@@ -14597,7 +14599,7 @@
       <c r="E50" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="G50" s="294"/>
+      <c r="G50" s="293"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="53" t="s">
@@ -14611,7 +14613,7 @@
         <v>163</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="294"/>
+      <c r="G51" s="293"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="53" t="s">
@@ -14624,7 +14626,7 @@
       <c r="E52" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="G52" s="294"/>
+      <c r="G52" s="293"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="53" t="s">
@@ -14638,7 +14640,7 @@
         <v>176</v>
       </c>
       <c r="F53" s="53"/>
-      <c r="G53" s="294"/>
+      <c r="G53" s="293"/>
       <c r="H53" s="53"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14653,7 +14655,7 @@
         <v>273</v>
       </c>
       <c r="F54" s="53"/>
-      <c r="G54" s="294"/>
+      <c r="G54" s="293"/>
       <c r="H54" s="53"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14669,7 +14671,7 @@
         <v>High</v>
       </c>
       <c r="F55" s="53"/>
-      <c r="G55" s="294"/>
+      <c r="G55" s="293"/>
       <c r="H55" s="53"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14684,7 +14686,7 @@
         <v>176</v>
       </c>
       <c r="F56" s="53"/>
-      <c r="G56" s="294"/>
+      <c r="G56" s="293"/>
       <c r="H56" s="53"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14699,7 +14701,7 @@
         <v>163</v>
       </c>
       <c r="F57" s="53"/>
-      <c r="G57" s="294"/>
+      <c r="G57" s="293"/>
       <c r="H57" s="53"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14714,7 +14716,7 @@
         <v>161</v>
       </c>
       <c r="F58" s="53"/>
-      <c r="G58" s="294"/>
+      <c r="G58" s="293"/>
       <c r="H58" s="53"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14729,7 +14731,7 @@
         <v>163</v>
       </c>
       <c r="F59" s="53"/>
-      <c r="G59" s="294"/>
+      <c r="G59" s="293"/>
       <c r="H59" s="53"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14744,7 +14746,7 @@
         <v>163</v>
       </c>
       <c r="F60" s="53"/>
-      <c r="G60" s="294"/>
+      <c r="G60" s="293"/>
       <c r="H60" s="53"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14759,7 +14761,7 @@
         <v>274</v>
       </c>
       <c r="F61" s="53"/>
-      <c r="G61" s="294"/>
+      <c r="G61" s="293"/>
       <c r="H61" s="53"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14775,12 +14777,12 @@
         <v>Medium</v>
       </c>
       <c r="F62" s="53"/>
-      <c r="G62" s="294"/>
+      <c r="G62" s="293"/>
       <c r="H62" s="53"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63" s="6"/>
-      <c r="G63" s="294"/>
+      <c r="G63" s="293"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="97" t="s">
@@ -14794,10 +14796,10 @@
         <f>AVERAGE(AVERAGE(D12:D16)/4,AVERAGE(D18:D22)/4,AVERAGE(D24:D28)/4,D62)</f>
         <v>0.37307823129251699</v>
       </c>
-      <c r="G64" s="294"/>
+      <c r="G64" s="293"/>
     </row>
     <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G65" s="295"/>
+      <c r="G65" s="294"/>
     </row>
     <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="54" t="s">
